--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2610082.360580194</v>
+        <v>-2613144.727241204</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>50.48273419507654</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>44.46519227902341</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="V2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>44.46519227902342</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,49 +756,49 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>44.4651922790234</v>
+      </c>
+      <c r="U3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>44.4651922790234</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>41.4216011981056</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,14 +826,14 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>8.386866521745247</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>25.3458026083015</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>25.3458026083015</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>47.3837968773324</v>
+      </c>
+      <c r="G6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>47.38379687733242</v>
-      </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>52.6063073409206</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>52.60630734092059</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
     </row>
     <row r="8">
@@ -1139,67 +1139,67 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>255.0853779233022</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
+        <v>12.9169039459368</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>255.0853779233022</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>154.6528871281402</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
       <c r="W8" t="n">
-        <v>63.15026800499282</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="X8" t="n">
         <v>255.0853779233022</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>204.8862511871963</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>64.7470864605765</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>118.929740181216</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>126.3098074276199</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>124.2443330803357</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>255.0853779233022</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>121.1016833358491</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>285.1389125243003</v>
       </c>
       <c r="I11" t="n">
-        <v>5.932070849544203</v>
+        <v>5.932070849544147</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.11890185129594</v>
+        <v>88.11890185129593</v>
       </c>
       <c r="T11" t="n">
         <v>199.8706224984269</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>125.5598922433086</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>84.81917523189108</v>
       </c>
       <c r="I12" t="n">
-        <v>1.784999579404058</v>
+        <v>1.784999579404044</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>134.0170864577429</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.6110736349459</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>141.0676470747522</v>
       </c>
       <c r="I13" t="n">
-        <v>83.88021916925238</v>
+        <v>83.88021916925237</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>70.28417584539893</v>
+        <v>70.28417584539891</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>182.5413319281158</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.7769013369082</v>
       </c>
       <c r="U13" t="n">
-        <v>13.79814008313833</v>
+        <v>286.1892163170265</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>371.5341974112695</v>
+        <v>371.5341974112694</v>
       </c>
       <c r="C14" t="n">
         <v>354.0732475187964</v>
       </c>
       <c r="D14" t="n">
-        <v>262.0392793138122</v>
+        <v>343.4833973684718</v>
       </c>
       <c r="E14" t="n">
-        <v>370.7307258200507</v>
+        <v>370.7307258200506</v>
       </c>
       <c r="F14" t="n">
         <v>395.6764014895003</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>76.9192575990848</v>
+        <v>76.91925759908474</v>
       </c>
       <c r="T14" t="n">
-        <v>188.6709782462158</v>
+        <v>188.6709782462157</v>
       </c>
       <c r="U14" t="n">
-        <v>239.7215613306097</v>
+        <v>158.2774432759515</v>
       </c>
       <c r="V14" t="n">
-        <v>316.5526142179238</v>
+        <v>316.5526142179237</v>
       </c>
       <c r="W14" t="n">
         <v>338.0413244652019</v>
@@ -1673,7 +1673,7 @@
         <v>358.5314564262579</v>
       </c>
       <c r="Y14" t="n">
-        <v>375.0382944038425</v>
+        <v>375.0382944038424</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>168.6323359297262</v>
+        <v>168.6323359297261</v>
       </c>
       <c r="C16" t="n">
-        <v>156.0471768464167</v>
+        <v>156.0471768464166</v>
       </c>
       <c r="D16" t="n">
-        <v>137.4158287660013</v>
+        <v>137.4158287660012</v>
       </c>
       <c r="E16" t="n">
-        <v>135.2343183943581</v>
+        <v>135.234318394358</v>
       </c>
       <c r="F16" t="n">
         <v>134.2214037707201</v>
@@ -1780,10 +1780,10 @@
         <v>154.4114293827347</v>
       </c>
       <c r="H16" t="n">
-        <v>129.8680028225411</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.68057491704124</v>
+        <v>72.68057491704118</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>59.0845315931878</v>
+        <v>59.08453159318772</v>
       </c>
       <c r="S16" t="n">
-        <v>171.3416876759047</v>
+        <v>170.4984317524652</v>
       </c>
       <c r="T16" t="n">
-        <v>76.1997803582797</v>
+        <v>206.577257084697</v>
       </c>
       <c r="U16" t="n">
-        <v>274.9895720648154</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>240.9379990716169</v>
+        <v>240.9379990716168</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>275.3233540843798</v>
       </c>
       <c r="X16" t="n">
-        <v>214.5100111368261</v>
+        <v>214.510011136826</v>
       </c>
       <c r="Y16" t="n">
-        <v>207.3850090998837</v>
+        <v>207.3850090998836</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>365.7167604073651</v>
+        <v>365.7167604073653</v>
       </c>
       <c r="C17" t="n">
-        <v>348.2558105148921</v>
+        <v>348.2558105148922</v>
       </c>
       <c r="D17" t="n">
-        <v>337.6659603645675</v>
+        <v>337.6659603645676</v>
       </c>
       <c r="E17" t="n">
-        <v>364.9132888161463</v>
+        <v>364.9132888161465</v>
       </c>
       <c r="F17" t="n">
-        <v>389.858964485596</v>
+        <v>389.8589644855961</v>
       </c>
       <c r="G17" t="n">
-        <v>392.980064696323</v>
+        <v>392.9800646963231</v>
       </c>
       <c r="H17" t="n">
-        <v>268.1218312681849</v>
+        <v>268.121831268185</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>71.10182059518047</v>
+        <v>71.10182059518061</v>
       </c>
       <c r="T17" t="n">
-        <v>182.8535412423114</v>
+        <v>182.8535412423116</v>
       </c>
       <c r="U17" t="n">
-        <v>233.9041243267053</v>
+        <v>233.9041243267054</v>
       </c>
       <c r="V17" t="n">
-        <v>310.7351772140195</v>
+        <v>310.7351772140196</v>
       </c>
       <c r="W17" t="n">
-        <v>332.2238874612976</v>
+        <v>332.2238874612977</v>
       </c>
       <c r="X17" t="n">
-        <v>352.7140194223536</v>
+        <v>352.7140194223537</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.2208573999382</v>
+        <v>369.2208573999383</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>162.8148989258218</v>
+        <v>162.814898925822</v>
       </c>
       <c r="C19" t="n">
-        <v>150.2297398425124</v>
+        <v>150.2297398425125</v>
       </c>
       <c r="D19" t="n">
-        <v>13.18390545281301</v>
+        <v>122.410761231249</v>
       </c>
       <c r="E19" t="n">
-        <v>129.4168813904537</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>128.4039667668158</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>148.5939923788305</v>
       </c>
       <c r="H19" t="n">
-        <v>124.0505658186368</v>
+        <v>124.0505658186369</v>
       </c>
       <c r="I19" t="n">
-        <v>66.86313791313691</v>
+        <v>66.86313791313705</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>53.26709458928345</v>
+        <v>53.26709458928359</v>
       </c>
       <c r="S19" t="n">
-        <v>165.5242506720003</v>
+        <v>165.5242506720004</v>
       </c>
       <c r="T19" t="n">
-        <v>200.7598200807928</v>
+        <v>200.7598200807929</v>
       </c>
       <c r="U19" t="n">
-        <v>269.1721350609111</v>
+        <v>269.1721350609112</v>
       </c>
       <c r="V19" t="n">
-        <v>235.1205620677125</v>
+        <v>235.1205620677127</v>
       </c>
       <c r="W19" t="n">
-        <v>269.5059170804756</v>
+        <v>269.5059170804757</v>
       </c>
       <c r="X19" t="n">
-        <v>208.6925741329217</v>
+        <v>208.6925741329218</v>
       </c>
       <c r="Y19" t="n">
-        <v>201.5675720959793</v>
+        <v>201.5675720959795</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>365.7167604073651</v>
+        <v>365.7167604073653</v>
       </c>
       <c r="C20" t="n">
-        <v>348.2558105148921</v>
+        <v>348.2558105148922</v>
       </c>
       <c r="D20" t="n">
-        <v>337.6659603645675</v>
+        <v>337.6659603645667</v>
       </c>
       <c r="E20" t="n">
-        <v>364.9132888161463</v>
+        <v>364.9132888161465</v>
       </c>
       <c r="F20" t="n">
-        <v>389.8589644855959</v>
+        <v>389.8589644855961</v>
       </c>
       <c r="G20" t="n">
-        <v>392.9800646963229</v>
+        <v>392.9800646963231</v>
       </c>
       <c r="H20" t="n">
-        <v>268.1218312681848</v>
+        <v>268.121831268185</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>71.10182059518044</v>
+        <v>71.10182059518061</v>
       </c>
       <c r="T20" t="n">
-        <v>182.8535412423114</v>
+        <v>182.8535412423116</v>
       </c>
       <c r="U20" t="n">
-        <v>233.9041243267053</v>
+        <v>233.9041243267054</v>
       </c>
       <c r="V20" t="n">
-        <v>310.7351772140198</v>
+        <v>310.7351772140196</v>
       </c>
       <c r="W20" t="n">
-        <v>332.2238874612975</v>
+        <v>332.2238874612977</v>
       </c>
       <c r="X20" t="n">
-        <v>352.7140194223535</v>
+        <v>352.7140194223537</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.2208573999381</v>
+        <v>369.2208573999383</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>162.8148989258218</v>
+        <v>44.40041261653468</v>
       </c>
       <c r="C22" t="n">
-        <v>81.68279082963242</v>
+        <v>150.2297398425125</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>131.598391762097</v>
       </c>
       <c r="E22" t="n">
-        <v>129.4168813904537</v>
+        <v>129.4168813904539</v>
       </c>
       <c r="F22" t="n">
-        <v>128.4039667668158</v>
+        <v>128.4039667668159</v>
       </c>
       <c r="G22" t="n">
-        <v>148.5939923788304</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>124.0505658186367</v>
+        <v>124.0505658186369</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>66.86313791313705</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>53.26709458928342</v>
+        <v>53.26709458928359</v>
       </c>
       <c r="S22" t="n">
-        <v>165.5242506720003</v>
+        <v>165.5242506720004</v>
       </c>
       <c r="T22" t="n">
-        <v>200.7598200807927</v>
+        <v>200.7598200807929</v>
       </c>
       <c r="U22" t="n">
-        <v>269.172135060911</v>
+        <v>269.1721350609112</v>
       </c>
       <c r="V22" t="n">
-        <v>235.1205620677125</v>
+        <v>235.1205620677127</v>
       </c>
       <c r="W22" t="n">
-        <v>269.5059170804755</v>
+        <v>269.5059170804757</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6925741329217</v>
+        <v>208.6925741329218</v>
       </c>
       <c r="Y22" t="n">
-        <v>201.5675720959793</v>
+        <v>201.5675720959795</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>365.7167604073651</v>
+        <v>365.7167604073653</v>
       </c>
       <c r="C23" t="n">
-        <v>348.2558105148921</v>
+        <v>348.2558105148922</v>
       </c>
       <c r="D23" t="n">
-        <v>337.6659603645675</v>
+        <v>337.6659603645658</v>
       </c>
       <c r="E23" t="n">
-        <v>364.9132888161463</v>
+        <v>364.9132888161465</v>
       </c>
       <c r="F23" t="n">
-        <v>389.8589644855959</v>
+        <v>389.8589644855961</v>
       </c>
       <c r="G23" t="n">
-        <v>392.9800646963229</v>
+        <v>392.9800646963231</v>
       </c>
       <c r="H23" t="n">
-        <v>268.1218312681848</v>
+        <v>268.121831268185</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>71.10182059518044</v>
+        <v>71.10182059518061</v>
       </c>
       <c r="T23" t="n">
-        <v>182.8535412423114</v>
+        <v>182.8535412423116</v>
       </c>
       <c r="U23" t="n">
-        <v>233.9041243267053</v>
+        <v>233.9041243267054</v>
       </c>
       <c r="V23" t="n">
-        <v>310.7351772140194</v>
+        <v>310.7351772140196</v>
       </c>
       <c r="W23" t="n">
-        <v>332.2238874612975</v>
+        <v>332.2238874612977</v>
       </c>
       <c r="X23" t="n">
-        <v>352.7140194223535</v>
+        <v>352.7140194223537</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.2208573999381</v>
+        <v>369.2208573999383</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162.8148989258218</v>
+        <v>162.814898925822</v>
       </c>
       <c r="C25" t="n">
-        <v>150.2297398425123</v>
+        <v>150.2297398425125</v>
       </c>
       <c r="D25" t="n">
-        <v>131.5983917620969</v>
+        <v>131.598391762097</v>
       </c>
       <c r="E25" t="n">
-        <v>77.8655329943073</v>
+        <v>129.4168813904539</v>
       </c>
       <c r="F25" t="n">
-        <v>128.4039667668158</v>
+        <v>128.4039667668159</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>148.5939923788305</v>
       </c>
       <c r="H25" t="n">
-        <v>124.0505658186367</v>
+        <v>124.0505658186369</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>66.86313791313705</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>53.26709458928342</v>
+        <v>53.26709458928359</v>
       </c>
       <c r="S25" t="n">
-        <v>165.5242506720003</v>
+        <v>165.5242506720004</v>
       </c>
       <c r="T25" t="n">
-        <v>200.7598200807927</v>
+        <v>200.7598200807929</v>
       </c>
       <c r="U25" t="n">
-        <v>269.172135060911</v>
+        <v>269.1721350609112</v>
       </c>
       <c r="V25" t="n">
-        <v>235.1205620677125</v>
+        <v>235.1205620677127</v>
       </c>
       <c r="W25" t="n">
-        <v>269.5059170804755</v>
+        <v>2.497438392357917</v>
       </c>
       <c r="X25" t="n">
-        <v>208.6925741329217</v>
+        <v>208.6925741329218</v>
       </c>
       <c r="Y25" t="n">
-        <v>201.5675720959793</v>
+        <v>201.5675720959795</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>354.517116155154</v>
       </c>
       <c r="C26" t="n">
         <v>337.056166262681</v>
@@ -2561,10 +2561,10 @@
         <v>326.4663161123564</v>
       </c>
       <c r="E26" t="n">
-        <v>353.7136445639352</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>378.6593202333849</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>381.7804204441119</v>
@@ -2573,7 +2573,7 @@
         <v>256.9221870159738</v>
       </c>
       <c r="I26" t="n">
-        <v>5.932070849544147</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>59.90217634296937</v>
       </c>
       <c r="T26" t="n">
-        <v>199.8706224984269</v>
+        <v>187.3652889794217</v>
       </c>
       <c r="U26" t="n">
-        <v>222.7044800744942</v>
+        <v>250.9212055828208</v>
       </c>
       <c r="V26" t="n">
-        <v>309.3148541015864</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>341.5143751701425</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>358.0212131477271</v>
       </c>
     </row>
     <row r="27">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>365.7167604073651</v>
+        <v>365.7167604073652</v>
       </c>
       <c r="C29" t="n">
-        <v>348.2558105148921</v>
+        <v>348.2558105148922</v>
       </c>
       <c r="D29" t="n">
-        <v>337.6659603645675</v>
+        <v>337.6659603645676</v>
       </c>
       <c r="E29" t="n">
-        <v>364.9132888161463</v>
+        <v>364.9132888161464</v>
       </c>
       <c r="F29" t="n">
-        <v>389.858964485596</v>
+        <v>389.8589644855961</v>
       </c>
       <c r="G29" t="n">
         <v>392.980064696323</v>
       </c>
       <c r="H29" t="n">
-        <v>268.1218312681849</v>
+        <v>268.121831268185</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.10182059518048</v>
+        <v>71.10182059518056</v>
       </c>
       <c r="T29" t="n">
         <v>182.8535412423115</v>
       </c>
       <c r="U29" t="n">
-        <v>233.9041243267053</v>
+        <v>233.9041243267054</v>
       </c>
       <c r="V29" t="n">
         <v>310.7351772140195</v>
@@ -2855,7 +2855,7 @@
         <v>332.2238874612976</v>
       </c>
       <c r="X29" t="n">
-        <v>352.7140194223536</v>
+        <v>352.7140194223537</v>
       </c>
       <c r="Y29" t="n">
         <v>369.2208573999382</v>
@@ -2950,25 +2950,25 @@
         <v>162.8148989258219</v>
       </c>
       <c r="C31" t="n">
-        <v>150.2297398425124</v>
+        <v>150.2297398425125</v>
       </c>
       <c r="D31" t="n">
-        <v>131.5983917620969</v>
+        <v>131.598391762097</v>
       </c>
       <c r="E31" t="n">
-        <v>129.4168813904537</v>
+        <v>129.4168813904538</v>
       </c>
       <c r="F31" t="n">
-        <v>128.4039667668158</v>
+        <v>128.4039667668159</v>
       </c>
       <c r="G31" t="n">
-        <v>148.5939923788304</v>
+        <v>5.636079509351227</v>
       </c>
       <c r="H31" t="n">
-        <v>124.0505658186368</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>66.86313791313694</v>
+        <v>66.863137913137</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>53.26709458928347</v>
+        <v>53.26709458928353</v>
       </c>
       <c r="S31" t="n">
-        <v>165.5242506720003</v>
+        <v>165.5242506720004</v>
       </c>
       <c r="T31" t="n">
         <v>200.7598200807928</v>
       </c>
       <c r="U31" t="n">
-        <v>269.1721350609111</v>
+        <v>269.1721350609112</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>235.1205620677126</v>
       </c>
       <c r="W31" t="n">
         <v>269.5059170804756</v>
       </c>
       <c r="X31" t="n">
-        <v>176.8046575125195</v>
+        <v>208.6925741329218</v>
       </c>
       <c r="Y31" t="n">
         <v>201.5675720959794</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>337.056166262681</v>
+        <v>352.767558252003</v>
       </c>
       <c r="D32" t="n">
         <v>326.4663161123564</v>
@@ -3047,7 +3047,7 @@
         <v>256.9221870159737</v>
       </c>
       <c r="I32" t="n">
-        <v>5.932070849544147</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>171.6538969901003</v>
       </c>
       <c r="U32" t="n">
-        <v>232.483801214272</v>
+        <v>222.7044800744942</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3205,7 +3205,7 @@
         <v>112.8509215664256</v>
       </c>
       <c r="I34" t="n">
-        <v>55.66349366092568</v>
+        <v>55.66349366092578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.06745033707234</v>
+        <v>42.06745033707232</v>
       </c>
       <c r="S34" t="n">
         <v>154.3246064197892</v>
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>354.517116155154</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>346.83548740246</v>
+        <v>337.056166262681</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>353.7136445639352</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>378.6593202333848</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>381.7804204441118</v>
@@ -3284,7 +3284,7 @@
         <v>256.9221870159737</v>
       </c>
       <c r="I35" t="n">
-        <v>5.932070849544147</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>59.90217634296937</v>
+        <v>59.90217634296934</v>
       </c>
       <c r="T35" t="n">
         <v>171.6538969901003</v>
@@ -3323,13 +3323,13 @@
         <v>222.7044800744942</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>299.5355329618083</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>321.0242432090864</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>357.2257671594658</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3442,7 +3442,7 @@
         <v>112.8509215664256</v>
       </c>
       <c r="I37" t="n">
-        <v>55.66349366092579</v>
+        <v>55.66349366092567</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.06745033707233</v>
+        <v>42.06745033707232</v>
       </c>
       <c r="S37" t="n">
         <v>154.3246064197892</v>
@@ -3478,7 +3478,7 @@
         <v>189.5601758285816</v>
       </c>
       <c r="U37" t="n">
-        <v>257.9724908087007</v>
+        <v>257.9724908087</v>
       </c>
       <c r="V37" t="n">
         <v>223.9209178155014</v>
@@ -3503,25 +3503,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>337.056166262681</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>326.4663161123564</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>353.7136445639352</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>378.6593202333849</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>381.7804204441119</v>
+        <v>381.7804204441118</v>
       </c>
       <c r="H38" t="n">
-        <v>256.9221870159738</v>
+        <v>256.9221870159737</v>
       </c>
       <c r="I38" t="n">
-        <v>5.932070849544147</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>59.9021763429694</v>
+        <v>59.90217634296934</v>
       </c>
       <c r="T38" t="n">
         <v>171.6538969901003</v>
       </c>
       <c r="U38" t="n">
-        <v>232.4838012142716</v>
+        <v>222.7044800744942</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>299.5355329618083</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>321.0242432090864</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>341.5143751701424</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>373.7326051370513</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.504775413415</v>
       </c>
       <c r="H39" t="n">
-        <v>84.81917523189108</v>
+        <v>84.81917523189107</v>
       </c>
       <c r="I39" t="n">
-        <v>1.784999579404044</v>
+        <v>1.78499957940403</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.6152546736108</v>
+        <v>151.6152546736107</v>
       </c>
       <c r="C40" t="n">
         <v>139.0300955903013</v>
@@ -3679,7 +3679,7 @@
         <v>112.8509215664256</v>
       </c>
       <c r="I40" t="n">
-        <v>55.66349366092584</v>
+        <v>55.66349366092578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.06745033707237</v>
+        <v>42.06745033707233</v>
       </c>
       <c r="S40" t="n">
         <v>154.3246064197892</v>
@@ -3715,19 +3715,19 @@
         <v>189.5601758285817</v>
       </c>
       <c r="U40" t="n">
-        <v>257.9724908087</v>
+        <v>257.9724908087005</v>
       </c>
       <c r="V40" t="n">
-        <v>223.9209178155015</v>
+        <v>223.9209178155014</v>
       </c>
       <c r="W40" t="n">
-        <v>258.3062728282645</v>
+        <v>258.3062728282644</v>
       </c>
       <c r="X40" t="n">
         <v>197.4929298807106</v>
       </c>
       <c r="Y40" t="n">
-        <v>190.3679278437683</v>
+        <v>190.3679278437682</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>364.2964372949316</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>337.056166262681</v>
       </c>
       <c r="D41" t="n">
-        <v>326.4663161123564</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>353.7136445639352</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>378.6593202333848</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>381.7804204441118</v>
+        <v>381.7804204441119</v>
       </c>
       <c r="H41" t="n">
-        <v>256.9221870159737</v>
+        <v>256.9221870159738</v>
       </c>
       <c r="I41" t="n">
-        <v>5.932070849544147</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,13 +3797,13 @@
         <v>222.7044800744942</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>299.5355329618084</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>321.0242432090865</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>357.2257671594649</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3834,10 +3834,10 @@
         <v>134.504775413415</v>
       </c>
       <c r="H42" t="n">
-        <v>84.81917523189108</v>
+        <v>84.81917523189107</v>
       </c>
       <c r="I42" t="n">
-        <v>1.784999579404044</v>
+        <v>1.78499957940403</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.6152546736107</v>
+        <v>151.6152546736108</v>
       </c>
       <c r="C43" t="n">
-        <v>139.0300955903012</v>
+        <v>139.0300955903013</v>
       </c>
       <c r="D43" t="n">
         <v>120.3987475098858</v>
@@ -3913,10 +3913,10 @@
         <v>137.3943481266193</v>
       </c>
       <c r="H43" t="n">
-        <v>112.8509215664256</v>
+        <v>112.8509215664257</v>
       </c>
       <c r="I43" t="n">
-        <v>55.66349366092578</v>
+        <v>55.66349366092581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.06745033707232</v>
+        <v>42.06745033707234</v>
       </c>
       <c r="S43" t="n">
         <v>154.3246064197892</v>
       </c>
       <c r="T43" t="n">
-        <v>189.5601758285816</v>
+        <v>189.5601758285817</v>
       </c>
       <c r="U43" t="n">
-        <v>257.9724908087009</v>
+        <v>257.9724908087</v>
       </c>
       <c r="V43" t="n">
-        <v>223.9209178155014</v>
+        <v>223.9209178155015</v>
       </c>
       <c r="W43" t="n">
-        <v>258.3062728282644</v>
+        <v>258.3062728282645</v>
       </c>
       <c r="X43" t="n">
         <v>197.4929298807106</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.3679278437682</v>
+        <v>190.3679278437683</v>
       </c>
     </row>
     <row r="44">
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>354.517116155154</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>337.056166262681</v>
       </c>
       <c r="D44" t="n">
-        <v>336.2456372521343</v>
+        <v>326.4663161123564</v>
       </c>
       <c r="E44" t="n">
         <v>353.7136445639352</v>
       </c>
       <c r="F44" t="n">
-        <v>378.6593202333849</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>381.7804204441119</v>
@@ -3995,7 +3995,7 @@
         <v>256.9221870159738</v>
       </c>
       <c r="I44" t="n">
-        <v>5.932070849544147</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>222.7044800744942</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>315.2469249511309</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4071,10 +4071,10 @@
         <v>134.504775413415</v>
       </c>
       <c r="H45" t="n">
-        <v>84.81917523189108</v>
+        <v>84.81917523189107</v>
       </c>
       <c r="I45" t="n">
-        <v>1.784999579404044</v>
+        <v>1.78499957940403</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.6152546736107</v>
+        <v>151.6152546736108</v>
       </c>
       <c r="C46" t="n">
         <v>139.0300955903013</v>
@@ -4153,7 +4153,7 @@
         <v>112.8509215664257</v>
       </c>
       <c r="I46" t="n">
-        <v>55.66349366092581</v>
+        <v>55.66349366092582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.06745033707234</v>
+        <v>42.06745033707236</v>
       </c>
       <c r="S46" t="n">
-        <v>154.3246064197893</v>
+        <v>154.3246064197897</v>
       </c>
       <c r="T46" t="n">
         <v>189.5601758285817</v>
       </c>
       <c r="U46" t="n">
-        <v>257.9724908086995</v>
+        <v>257.9724908086993</v>
       </c>
       <c r="V46" t="n">
-        <v>223.9209178155014</v>
+        <v>223.9209178155015</v>
       </c>
       <c r="W46" t="n">
         <v>258.3062728282645</v>
@@ -4201,7 +4201,7 @@
         <v>197.4929298807106</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.3679278437682</v>
+        <v>190.3679278437683</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="C2" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="D2" t="n">
         <v>4.038618735606123</v>
@@ -4331,13 +4331,13 @@
         <v>4.038618735606123</v>
       </c>
       <c r="K2" t="n">
-        <v>54.01652558873189</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="L2" t="n">
-        <v>54.01652558873189</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="M2" t="n">
-        <v>54.01652558873189</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="N2" t="n">
         <v>101.9751230740546</v>
@@ -4355,25 +4355,25 @@
         <v>150.9382759771985</v>
       </c>
       <c r="S2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="T2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="U2" t="n">
-        <v>106.0239403418214</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="V2" t="n">
-        <v>55.03127953871374</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="W2" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="X2" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="Y2" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.016601144929</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="C3" t="n">
-        <v>157.016601144929</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="D3" t="n">
-        <v>157.016601144929</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="E3" t="n">
-        <v>106.0239403418214</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="F3" t="n">
-        <v>106.0239403418214</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="G3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I3" t="n">
         <v>4.038618735606123</v>
@@ -4416,10 +4416,10 @@
         <v>57.90734322943065</v>
       </c>
       <c r="M3" t="n">
-        <v>57.90734322943065</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="N3" t="n">
-        <v>57.90734322943065</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="O3" t="n">
         <v>101.9751230740546</v>
@@ -4437,22 +4437,22 @@
         <v>201.9309367803062</v>
       </c>
       <c r="T3" t="n">
-        <v>201.9309367803062</v>
+        <v>157.016601144929</v>
       </c>
       <c r="U3" t="n">
-        <v>201.9309367803062</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="V3" t="n">
-        <v>201.9309367803062</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="W3" t="n">
-        <v>157.016601144929</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="X3" t="n">
-        <v>157.016601144929</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.016601144929</v>
+        <v>55.03127953871374</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.4740328288937</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="C4" t="n">
-        <v>91.4740328288937</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="D4" t="n">
-        <v>91.4740328288937</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="E4" t="n">
-        <v>91.4740328288937</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="F4" t="n">
-        <v>40.48137202578608</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="G4" t="n">
-        <v>40.48137202578608</v>
+        <v>72.65552147681089</v>
       </c>
       <c r="H4" t="n">
-        <v>40.48137202578608</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="I4" t="n">
-        <v>40.48137202578608</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="J4" t="n">
-        <v>40.48137202578608</v>
+        <v>21.66286067370327</v>
       </c>
       <c r="K4" t="n">
-        <v>40.48137202578608</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="L4" t="n">
-        <v>73.9036487032557</v>
+        <v>37.46089541307574</v>
       </c>
       <c r="M4" t="n">
-        <v>119.5318764051767</v>
+        <v>83.0891231149967</v>
       </c>
       <c r="N4" t="n">
-        <v>169.5097832583024</v>
+        <v>133.0670299681225</v>
       </c>
       <c r="O4" t="n">
-        <v>199.656173881301</v>
+        <v>163.2134205911211</v>
       </c>
       <c r="P4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="Q4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="R4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="S4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="T4" t="n">
-        <v>193.4593544351089</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="U4" t="n">
-        <v>193.4593544351089</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="V4" t="n">
-        <v>142.4666936320013</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="W4" t="n">
-        <v>142.4666936320013</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="X4" t="n">
-        <v>142.4666936320013</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="Y4" t="n">
-        <v>91.4740328288937</v>
+        <v>114.4955226870186</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26.56430571019821</v>
+        <v>189.5834511060244</v>
       </c>
       <c r="C5" t="n">
-        <v>26.56430571019821</v>
+        <v>135.2437359740823</v>
       </c>
       <c r="D5" t="n">
-        <v>26.56430571019821</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="E5" t="n">
-        <v>26.56430571019821</v>
+        <v>80.90402084214027</v>
       </c>
       <c r="F5" t="n">
-        <v>19.61880496099473</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="G5" t="n">
-        <v>4.303705438449811</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="H5" t="n">
-        <v>4.303705438449811</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="I5" t="n">
         <v>4.303705438449811</v>
@@ -4568,19 +4568,19 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K5" t="n">
-        <v>57.56206023926622</v>
+        <v>55.4102075200413</v>
       </c>
       <c r="L5" t="n">
-        <v>57.56206023926622</v>
+        <v>55.4102075200413</v>
       </c>
       <c r="M5" t="n">
-        <v>57.56206023926622</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="N5" t="n">
-        <v>108.6685623208577</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="O5" t="n">
-        <v>161.9269171216741</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="P5" t="n">
         <v>215.1852719224906</v>
@@ -4589,28 +4589,28 @@
         <v>215.1852719224906</v>
       </c>
       <c r="R5" t="n">
-        <v>215.1852719224906</v>
+        <v>189.5834511060244</v>
       </c>
       <c r="S5" t="n">
-        <v>215.1852719224906</v>
+        <v>189.5834511060244</v>
       </c>
       <c r="T5" t="n">
-        <v>215.1852719224906</v>
+        <v>189.5834511060244</v>
       </c>
       <c r="U5" t="n">
-        <v>160.8455567905485</v>
+        <v>189.5834511060244</v>
       </c>
       <c r="V5" t="n">
-        <v>160.8455567905485</v>
+        <v>189.5834511060244</v>
       </c>
       <c r="W5" t="n">
-        <v>135.2437359740823</v>
+        <v>189.5834511060244</v>
       </c>
       <c r="X5" t="n">
-        <v>80.90402084214027</v>
+        <v>189.5834511060244</v>
       </c>
       <c r="Y5" t="n">
-        <v>80.90402084214027</v>
+        <v>189.5834511060244</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106.5058416586064</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="C6" t="n">
-        <v>106.5058416586064</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="D6" t="n">
-        <v>106.5058416586064</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="E6" t="n">
-        <v>52.16612652666438</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="F6" t="n">
-        <v>52.16612652666438</v>
+        <v>167.322850834276</v>
       </c>
       <c r="G6" t="n">
-        <v>4.303705438449811</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="H6" t="n">
-        <v>4.303705438449811</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="I6" t="n">
         <v>4.303705438449811</v>
@@ -4650,19 +4650,19 @@
         <v>63.86868055626314</v>
       </c>
       <c r="L6" t="n">
+        <v>63.86868055626314</v>
+      </c>
+      <c r="M6" t="n">
+        <v>63.86868055626314</v>
+      </c>
+      <c r="N6" t="n">
+        <v>63.86868055626314</v>
+      </c>
+      <c r="O6" t="n">
         <v>117.1270353570795</v>
       </c>
-      <c r="M6" t="n">
-        <v>170.385390157896</v>
-      </c>
-      <c r="N6" t="n">
-        <v>215.1852719224906</v>
-      </c>
-      <c r="O6" t="n">
-        <v>215.1852719224906</v>
-      </c>
       <c r="P6" t="n">
-        <v>215.1852719224906</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="Q6" t="n">
         <v>215.1852719224906</v>
@@ -4683,13 +4683,13 @@
         <v>215.1852719224906</v>
       </c>
       <c r="W6" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="X6" t="n">
-        <v>106.5058416586064</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Y6" t="n">
-        <v>106.5058416586064</v>
+        <v>215.1852719224906</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.2039013453972</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="C7" t="n">
-        <v>126.8641862134551</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="D7" t="n">
-        <v>126.8641862134551</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="E7" t="n">
-        <v>73.72650203070704</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="F7" t="n">
-        <v>73.72650203070704</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="G7" t="n">
         <v>19.38678689876497</v>
@@ -4744,31 +4744,31 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>181.2039013453972</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="R7" t="n">
-        <v>181.2039013453972</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="S7" t="n">
-        <v>181.2039013453972</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="T7" t="n">
-        <v>181.2039013453972</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="U7" t="n">
-        <v>181.2039013453972</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="V7" t="n">
-        <v>181.2039013453972</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="W7" t="n">
-        <v>181.2039013453972</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="X7" t="n">
-        <v>181.2039013453972</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.2039013453972</v>
+        <v>19.38678689876497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>542.6763267877187</v>
+        <v>40.39970870623614</v>
       </c>
       <c r="C8" t="n">
-        <v>542.6763267877187</v>
+        <v>40.39970870623614</v>
       </c>
       <c r="D8" t="n">
-        <v>542.6763267877187</v>
+        <v>40.39970870623614</v>
       </c>
       <c r="E8" t="n">
-        <v>285.0143288853932</v>
+        <v>40.39970870623614</v>
       </c>
       <c r="F8" t="n">
-        <v>278.0688281361897</v>
+        <v>33.45420795703266</v>
       </c>
       <c r="G8" t="n">
         <v>20.40683023386418</v>
@@ -4808,10 +4808,10 @@
         <v>124.2042348018398</v>
       </c>
       <c r="L8" t="n">
-        <v>323.4204153877379</v>
+        <v>263.532890643093</v>
       </c>
       <c r="M8" t="n">
-        <v>510.1198282131455</v>
+        <v>451.9195169610587</v>
       </c>
       <c r="N8" t="n">
         <v>704.4540411051279</v>
@@ -4829,25 +4829,25 @@
         <v>1020.341511693209</v>
       </c>
       <c r="S8" t="n">
-        <v>864.126474190037</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T8" t="n">
-        <v>864.126474190037</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="U8" t="n">
-        <v>864.126474190037</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="V8" t="n">
-        <v>864.126474190037</v>
+        <v>762.6795137908834</v>
       </c>
       <c r="W8" t="n">
-        <v>800.3383246900443</v>
+        <v>505.0175158885579</v>
       </c>
       <c r="X8" t="n">
-        <v>542.6763267877187</v>
+        <v>247.3555179862324</v>
       </c>
       <c r="Y8" t="n">
-        <v>542.6763267877187</v>
+        <v>40.39970870623614</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>503.031724181698</v>
+        <v>933.82851466047</v>
       </c>
       <c r="C9" t="n">
-        <v>328.578694900571</v>
+        <v>759.375485379343</v>
       </c>
       <c r="D9" t="n">
-        <v>179.6442852393197</v>
+        <v>610.4410757180917</v>
       </c>
       <c r="E9" t="n">
-        <v>20.40683023386418</v>
+        <v>451.2036207126362</v>
       </c>
       <c r="F9" t="n">
-        <v>20.40683023386418</v>
+        <v>304.6690627395212</v>
       </c>
       <c r="G9" t="n">
-        <v>20.40683023386418</v>
+        <v>167.2276650987431</v>
       </c>
       <c r="H9" t="n">
-        <v>20.40683023386418</v>
+        <v>66.31168724354769</v>
       </c>
       <c r="I9" t="n">
         <v>20.40683023386418</v>
@@ -4893,13 +4893,13 @@
         <v>404.74158426752</v>
       </c>
       <c r="N9" t="n">
-        <v>657.2761084115892</v>
+        <v>603.3983259201847</v>
       </c>
       <c r="O9" t="n">
-        <v>816.7884210803498</v>
+        <v>762.9106385889453</v>
       </c>
       <c r="P9" t="n">
-        <v>997.604570491232</v>
+        <v>871.6002661162441</v>
       </c>
       <c r="Q9" t="n">
         <v>1020.341511693209</v>
@@ -4917,16 +4917,16 @@
         <v>999.2296120953957</v>
       </c>
       <c r="V9" t="n">
-        <v>879.0985614072988</v>
+        <v>999.2296120953957</v>
       </c>
       <c r="W9" t="n">
-        <v>879.0985614072988</v>
+        <v>999.2296120953957</v>
       </c>
       <c r="X9" t="n">
-        <v>671.247061201766</v>
+        <v>999.2296120953957</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.247061201766</v>
+        <v>999.2296120953957</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.3980574055625</v>
+        <v>638.0713594190192</v>
       </c>
       <c r="C10" t="n">
-        <v>188.3980574055625</v>
+        <v>638.0713594190192</v>
       </c>
       <c r="D10" t="n">
-        <v>38.2814179932268</v>
+        <v>638.0713594190192</v>
       </c>
       <c r="E10" t="n">
-        <v>38.2814179932268</v>
+        <v>490.1582658366261</v>
       </c>
       <c r="F10" t="n">
-        <v>38.2814179932268</v>
+        <v>343.2683183387157</v>
       </c>
       <c r="G10" t="n">
-        <v>38.2814179932268</v>
+        <v>174.6614733340991</v>
       </c>
       <c r="H10" t="n">
-        <v>38.2814179932268</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I10" t="n">
-        <v>38.2814179932268</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J10" t="n">
         <v>20.40683023386418</v>
@@ -4987,25 +4987,25 @@
         <v>1020.341511693209</v>
       </c>
       <c r="S10" t="n">
-        <v>1020.341511693209</v>
+        <v>892.7558476249061</v>
       </c>
       <c r="T10" t="n">
-        <v>1020.341511693209</v>
+        <v>892.7558476249061</v>
       </c>
       <c r="U10" t="n">
-        <v>894.8421853494356</v>
+        <v>892.7558476249061</v>
       </c>
       <c r="V10" t="n">
-        <v>894.8421853494356</v>
+        <v>638.0713594190192</v>
       </c>
       <c r="W10" t="n">
-        <v>637.18018744711</v>
+        <v>638.0713594190192</v>
       </c>
       <c r="X10" t="n">
-        <v>409.1906365490926</v>
+        <v>638.0713594190192</v>
       </c>
       <c r="Y10" t="n">
-        <v>188.3980574055625</v>
+        <v>638.0713594190192</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2321.211287492894</v>
+        <v>2074.573703214956</v>
       </c>
       <c r="C11" t="n">
         <v>1952.248770552482</v>
@@ -5033,16 +5033,16 @@
         <v>383.0703832927904</v>
       </c>
       <c r="H11" t="n">
-        <v>95.0512797328911</v>
+        <v>95.05127973289109</v>
       </c>
       <c r="I11" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="J11" t="n">
-        <v>355.6262408698349</v>
+        <v>355.626240869835</v>
       </c>
       <c r="K11" t="n">
-        <v>805.8795196512415</v>
+        <v>805.8795196512417</v>
       </c>
       <c r="L11" t="n">
         <v>1401.3602879559</v>
@@ -5051,40 +5051,40 @@
         <v>2095.61681699942</v>
       </c>
       <c r="N11" t="n">
-        <v>2805.720950884552</v>
+        <v>2805.720950884553</v>
       </c>
       <c r="O11" t="n">
-        <v>3462.91688708229</v>
+        <v>3462.916887082291</v>
       </c>
       <c r="P11" t="n">
-        <v>3989.317413002749</v>
+        <v>3989.31741300275</v>
       </c>
       <c r="Q11" t="n">
-        <v>4336.449538884539</v>
+        <v>4336.44953888454</v>
       </c>
       <c r="R11" t="n">
-        <v>4452.964448788787</v>
+        <v>4452.964448788789</v>
       </c>
       <c r="S11" t="n">
-        <v>4363.955457019802</v>
+        <v>4363.955457019803</v>
       </c>
       <c r="T11" t="n">
-        <v>4162.065939344623</v>
+        <v>4162.065939344625</v>
       </c>
       <c r="U11" t="n">
-        <v>3908.610176129653</v>
+        <v>3908.610176129655</v>
       </c>
       <c r="V11" t="n">
-        <v>3577.547288786082</v>
+        <v>3577.547288786084</v>
       </c>
       <c r="W11" t="n">
-        <v>3224.778633515968</v>
+        <v>3224.778633515969</v>
       </c>
       <c r="X11" t="n">
-        <v>3097.950459532828</v>
+        <v>2851.31287525489</v>
       </c>
       <c r="Y11" t="n">
-        <v>2707.811127557016</v>
+        <v>2461.173543279078</v>
       </c>
     </row>
     <row r="12">
@@ -5112,16 +5112,16 @@
         <v>176.5382534316294</v>
       </c>
       <c r="H12" t="n">
-        <v>90.86231885396165</v>
+        <v>90.86231885396168</v>
       </c>
       <c r="I12" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="J12" t="n">
-        <v>229.0068924004453</v>
+        <v>229.0068924004455</v>
       </c>
       <c r="K12" t="n">
-        <v>546.3544619044452</v>
+        <v>546.3544619044453</v>
       </c>
       <c r="L12" t="n">
         <v>1019.389973380253</v>
@@ -5130,7 +5130,7 @@
         <v>1019.389973380253</v>
       </c>
       <c r="N12" t="n">
-        <v>1371.670587244055</v>
+        <v>1371.670587244054</v>
       </c>
       <c r="O12" t="n">
         <v>1899.155092367533</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1097.419132072029</v>
+        <v>464.1924494713048</v>
       </c>
       <c r="C13" t="n">
-        <v>928.4829491441226</v>
+        <v>464.1924494713048</v>
       </c>
       <c r="D13" t="n">
-        <v>778.3663097317868</v>
+        <v>464.1924494713048</v>
       </c>
       <c r="E13" t="n">
-        <v>630.4532161493937</v>
+        <v>316.2793558889117</v>
       </c>
       <c r="F13" t="n">
-        <v>483.5632686514833</v>
+        <v>316.2793558889117</v>
       </c>
       <c r="G13" t="n">
         <v>316.2793558889117</v>
@@ -5194,22 +5194,22 @@
         <v>173.7867830861317</v>
       </c>
       <c r="I13" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="J13" t="n">
-        <v>163.2104419661075</v>
+        <v>163.2104419661076</v>
       </c>
       <c r="K13" t="n">
-        <v>414.9004013769363</v>
+        <v>414.9004013769364</v>
       </c>
       <c r="L13" t="n">
-        <v>792.5033302056179</v>
+        <v>792.5033302056181</v>
       </c>
       <c r="M13" t="n">
-        <v>1201.021797912635</v>
+        <v>1201.021797912636</v>
       </c>
       <c r="N13" t="n">
-        <v>1605.261225963104</v>
+        <v>1605.261225963105</v>
       </c>
       <c r="O13" t="n">
         <v>1962.62547030061</v>
@@ -5221,28 +5221,28 @@
         <v>2356.883017437712</v>
       </c>
       <c r="R13" t="n">
-        <v>2285.888900422157</v>
+        <v>2285.888900422158</v>
       </c>
       <c r="S13" t="n">
-        <v>2285.888900422157</v>
+        <v>2101.503716656384</v>
       </c>
       <c r="T13" t="n">
-        <v>2285.888900422157</v>
+        <v>1881.527048639305</v>
       </c>
       <c r="U13" t="n">
-        <v>2271.951385186664</v>
+        <v>1592.44703215746</v>
       </c>
       <c r="V13" t="n">
-        <v>2017.266896980777</v>
+        <v>1337.762543951573</v>
       </c>
       <c r="W13" t="n">
-        <v>1727.849726943816</v>
+        <v>1048.345373914613</v>
       </c>
       <c r="X13" t="n">
-        <v>1499.860176045799</v>
+        <v>820.3558230165954</v>
       </c>
       <c r="Y13" t="n">
-        <v>1279.067596902269</v>
+        <v>599.5632438730653</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2165.075878990398</v>
+        <v>2247.342664904196</v>
       </c>
       <c r="C14" t="n">
-        <v>1807.426134021917</v>
+        <v>1889.692919935714</v>
       </c>
       <c r="D14" t="n">
         <v>1542.739993300894</v>
@@ -5264,64 +5264,64 @@
         <v>1168.264512674581</v>
       </c>
       <c r="F14" t="n">
-        <v>768.5913798569036</v>
+        <v>768.5913798569035</v>
       </c>
       <c r="G14" t="n">
-        <v>365.7656205637447</v>
+        <v>365.7656205637446</v>
       </c>
       <c r="H14" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="I14" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="J14" t="n">
-        <v>355.626240869835</v>
+        <v>355.6262408698353</v>
       </c>
       <c r="K14" t="n">
-        <v>805.8795196512417</v>
+        <v>805.8795196512422</v>
       </c>
       <c r="L14" t="n">
         <v>1401.3602879559</v>
       </c>
       <c r="M14" t="n">
-        <v>2095.61681699942</v>
+        <v>2095.616816999421</v>
       </c>
       <c r="N14" t="n">
         <v>2805.720950884553</v>
       </c>
       <c r="O14" t="n">
-        <v>3462.916887082291</v>
+        <v>3462.916887082292</v>
       </c>
       <c r="P14" t="n">
-        <v>3989.31741300275</v>
+        <v>3989.317413002751</v>
       </c>
       <c r="Q14" t="n">
-        <v>4336.449538884539</v>
+        <v>4336.44953888454</v>
       </c>
       <c r="R14" t="n">
-        <v>4452.964448788787</v>
+        <v>4452.964448788789</v>
       </c>
       <c r="S14" t="n">
-        <v>4375.268228991732</v>
+        <v>4375.268228991734</v>
       </c>
       <c r="T14" t="n">
-        <v>4184.691483288484</v>
+        <v>4184.691483288486</v>
       </c>
       <c r="U14" t="n">
-        <v>3942.548492045444</v>
+        <v>4024.815277959242</v>
       </c>
       <c r="V14" t="n">
-        <v>3622.798376673804</v>
+        <v>3705.065162587602</v>
       </c>
       <c r="W14" t="n">
-        <v>3281.34249337562</v>
+        <v>3363.609279289418</v>
       </c>
       <c r="X14" t="n">
-        <v>2919.189507086471</v>
+        <v>3001.456293000268</v>
       </c>
       <c r="Y14" t="n">
-        <v>2540.362947082589</v>
+        <v>2622.629732996387</v>
       </c>
     </row>
     <row r="15">
@@ -5349,13 +5349,13 @@
         <v>176.5382534316294</v>
       </c>
       <c r="H15" t="n">
-        <v>90.86231885396165</v>
+        <v>90.86231885396168</v>
       </c>
       <c r="I15" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="J15" t="n">
-        <v>229.0068924004454</v>
+        <v>229.0068924004455</v>
       </c>
       <c r="K15" t="n">
         <v>546.3544619044453</v>
@@ -5364,16 +5364,16 @@
         <v>1019.389973380253</v>
       </c>
       <c r="M15" t="n">
-        <v>1328.522846726258</v>
+        <v>1590.75697180113</v>
       </c>
       <c r="N15" t="n">
-        <v>1929.420874355517</v>
+        <v>2191.65499943039</v>
       </c>
       <c r="O15" t="n">
-        <v>1929.420874355517</v>
+        <v>2553.597936278806</v>
       </c>
       <c r="P15" t="n">
-        <v>2333.440627329265</v>
+        <v>2553.597936278806</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.597936278806</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1018.229728268517</v>
+        <v>887.0499274376665</v>
       </c>
       <c r="C16" t="n">
-        <v>860.6063173125401</v>
+        <v>729.4265164816901</v>
       </c>
       <c r="D16" t="n">
-        <v>721.8024498721347</v>
+        <v>590.6226490412848</v>
       </c>
       <c r="E16" t="n">
-        <v>585.202128261672</v>
+        <v>454.0223274308222</v>
       </c>
       <c r="F16" t="n">
-        <v>449.624952735692</v>
+        <v>318.4451519048423</v>
       </c>
       <c r="G16" t="n">
-        <v>293.6538119450508</v>
+        <v>162.4740111142012</v>
       </c>
       <c r="H16" t="n">
         <v>162.4740111142012</v>
       </c>
       <c r="I16" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="J16" t="n">
-        <v>174.2980897757965</v>
+        <v>174.2980897757967</v>
       </c>
       <c r="K16" t="n">
-        <v>437.0756969963144</v>
+        <v>437.0756969963145</v>
       </c>
       <c r="L16" t="n">
-        <v>825.766273634685</v>
+        <v>825.7662736346853</v>
       </c>
       <c r="M16" t="n">
-        <v>1245.372389151391</v>
+        <v>1245.372389151392</v>
       </c>
       <c r="N16" t="n">
         <v>1660.69946501155</v>
@@ -5452,34 +5452,34 @@
         <v>2029.151357158744</v>
       </c>
       <c r="P16" t="n">
-        <v>2322.505170351217</v>
+        <v>2322.505170351218</v>
       </c>
       <c r="Q16" t="n">
         <v>2445.584199915224</v>
       </c>
       <c r="R16" t="n">
-        <v>2385.9028548716</v>
+        <v>2385.902854871601</v>
       </c>
       <c r="S16" t="n">
-        <v>2212.830443077757</v>
+        <v>2213.682216737797</v>
       </c>
       <c r="T16" t="n">
-        <v>2135.860967968384</v>
+        <v>2005.018320692649</v>
       </c>
       <c r="U16" t="n">
-        <v>1858.093723458469</v>
+        <v>2005.018320692649</v>
       </c>
       <c r="V16" t="n">
-        <v>1614.722007224512</v>
+        <v>1761.646604458692</v>
       </c>
       <c r="W16" t="n">
-        <v>1614.722007224512</v>
+        <v>1483.542206393662</v>
       </c>
       <c r="X16" t="n">
-        <v>1398.045228298426</v>
+        <v>1266.865427467575</v>
       </c>
       <c r="Y16" t="n">
-        <v>1188.565421126826</v>
+        <v>1057.385620295976</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2212.085470941139</v>
+        <v>2212.085470941138</v>
       </c>
       <c r="C17" t="n">
-        <v>1860.311924966501</v>
+        <v>1860.3119249665</v>
       </c>
       <c r="D17" t="n">
-        <v>1519.235197325524</v>
+        <v>1519.235197325522</v>
       </c>
       <c r="E17" t="n">
-        <v>1150.635915693053</v>
+        <v>1150.635915693051</v>
       </c>
       <c r="F17" t="n">
-        <v>756.8389818692182</v>
+        <v>756.8389818692165</v>
       </c>
       <c r="G17" t="n">
-        <v>359.889421569902</v>
+        <v>359.8894215699021</v>
       </c>
       <c r="H17" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="I17" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="J17" t="n">
         <v>355.626240869835</v>
@@ -5522,22 +5522,22 @@
         <v>1401.3602879559</v>
       </c>
       <c r="M17" t="n">
-        <v>2095.61681699942</v>
+        <v>2095.616816999421</v>
       </c>
       <c r="N17" t="n">
-        <v>2805.720950884553</v>
+        <v>2805.720950884554</v>
       </c>
       <c r="O17" t="n">
-        <v>3462.916887082291</v>
+        <v>3462.916887082292</v>
       </c>
       <c r="P17" t="n">
-        <v>3989.31741300275</v>
+        <v>3989.317413002751</v>
       </c>
       <c r="Q17" t="n">
-        <v>4336.449538884539</v>
+        <v>4336.44953888454</v>
       </c>
       <c r="R17" t="n">
-        <v>4452.964448788787</v>
+        <v>4452.964448788789</v>
       </c>
       <c r="S17" t="n">
         <v>4381.144427985575</v>
@@ -5546,7 +5546,7 @@
         <v>4196.443881276169</v>
       </c>
       <c r="U17" t="n">
-        <v>3960.177089026971</v>
+        <v>3960.177089026972</v>
       </c>
       <c r="V17" t="n">
         <v>3646.303172649174</v>
@@ -5558,7 +5558,7 @@
         <v>2954.446701049526</v>
       </c>
       <c r="Y17" t="n">
-        <v>2581.496340039488</v>
+        <v>2581.496340039487</v>
       </c>
     </row>
     <row r="18">
@@ -5586,13 +5586,13 @@
         <v>176.5382534316294</v>
       </c>
       <c r="H18" t="n">
-        <v>90.86231885396165</v>
+        <v>90.86231885396168</v>
       </c>
       <c r="I18" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="J18" t="n">
-        <v>229.0068924004454</v>
+        <v>229.0068924004455</v>
       </c>
       <c r="K18" t="n">
         <v>546.3544619044453</v>
@@ -5601,10 +5601,10 @@
         <v>1019.389973380253</v>
       </c>
       <c r="M18" t="n">
-        <v>1590.75697180113</v>
+        <v>1401.936369232038</v>
       </c>
       <c r="N18" t="n">
-        <v>1929.420874355517</v>
+        <v>1401.936369232038</v>
       </c>
       <c r="O18" t="n">
         <v>1929.420874355517</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.3908012832187</v>
+        <v>707.3908012832162</v>
       </c>
       <c r="C19" t="n">
-        <v>555.643589321085</v>
+        <v>555.6435893210823</v>
       </c>
       <c r="D19" t="n">
-        <v>542.3265131061223</v>
+        <v>431.9963557541642</v>
       </c>
       <c r="E19" t="n">
-        <v>411.6023904895025</v>
+        <v>431.9963557541642</v>
       </c>
       <c r="F19" t="n">
-        <v>281.9014139573653</v>
+        <v>431.9963557541642</v>
       </c>
       <c r="G19" t="n">
-        <v>281.9014139573653</v>
+        <v>281.9014139573657</v>
       </c>
       <c r="H19" t="n">
-        <v>156.5978121203585</v>
+        <v>156.5978121203587</v>
       </c>
       <c r="I19" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="J19" t="n">
-        <v>180.0573524096619</v>
+        <v>180.0573524096617</v>
       </c>
       <c r="K19" t="n">
-        <v>448.594222264045</v>
+        <v>448.5942222640447</v>
       </c>
       <c r="L19" t="n">
-        <v>843.0440615362809</v>
+        <v>843.0440615362807</v>
       </c>
       <c r="M19" t="n">
-        <v>1268.409439686853</v>
+        <v>1268.409439686852</v>
       </c>
       <c r="N19" t="n">
         <v>1689.495778180876</v>
       </c>
       <c r="O19" t="n">
-        <v>2063.706932961936</v>
+        <v>2063.706932961935</v>
       </c>
       <c r="P19" t="n">
         <v>2362.820008788274</v>
       </c>
       <c r="Q19" t="n">
-        <v>2491.658300986147</v>
+        <v>2491.658300986146</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.853154936365</v>
+        <v>2437.853154936364</v>
       </c>
       <c r="S19" t="n">
-        <v>2270.656942136365</v>
+        <v>2270.656942136364</v>
       </c>
       <c r="T19" t="n">
-        <v>2067.869245085059</v>
+        <v>2067.869245085058</v>
       </c>
       <c r="U19" t="n">
-        <v>1795.978199568987</v>
+        <v>1795.978199568986</v>
       </c>
       <c r="V19" t="n">
-        <v>1558.482682328874</v>
+        <v>1558.482682328872</v>
       </c>
       <c r="W19" t="n">
-        <v>1286.254483257686</v>
+        <v>1286.254483257684</v>
       </c>
       <c r="X19" t="n">
-        <v>1075.453903325442</v>
+        <v>1075.45390332544</v>
       </c>
       <c r="Y19" t="n">
-        <v>871.8502951476852</v>
+        <v>871.8502951476828</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1860.311924966501</v>
       </c>
       <c r="D20" t="n">
-        <v>1519.235197325523</v>
+        <v>1519.235197325524</v>
       </c>
       <c r="E20" t="n">
-        <v>1150.635915693052</v>
+        <v>1150.635915693053</v>
       </c>
       <c r="F20" t="n">
-        <v>756.8389818692181</v>
+        <v>756.8389818692183</v>
       </c>
       <c r="G20" t="n">
-        <v>359.8894215699019</v>
+        <v>359.8894215699021</v>
       </c>
       <c r="H20" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="I20" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="J20" t="n">
         <v>355.626240869835</v>
@@ -5759,40 +5759,40 @@
         <v>1401.3602879559</v>
       </c>
       <c r="M20" t="n">
-        <v>2095.616816999419</v>
+        <v>2095.616816999421</v>
       </c>
       <c r="N20" t="n">
-        <v>2805.720950884552</v>
+        <v>2805.720950884554</v>
       </c>
       <c r="O20" t="n">
-        <v>3462.91688708229</v>
+        <v>3462.916887082292</v>
       </c>
       <c r="P20" t="n">
-        <v>3989.317413002749</v>
+        <v>3989.317413002751</v>
       </c>
       <c r="Q20" t="n">
-        <v>4336.449538884538</v>
+        <v>4336.44953888454</v>
       </c>
       <c r="R20" t="n">
-        <v>4452.964448788787</v>
+        <v>4452.964448788789</v>
       </c>
       <c r="S20" t="n">
-        <v>4381.144427985575</v>
+        <v>4381.144427985576</v>
       </c>
       <c r="T20" t="n">
-        <v>4196.443881276169</v>
+        <v>4196.44388127617</v>
       </c>
       <c r="U20" t="n">
-        <v>3960.177089026972</v>
+        <v>3960.177089026973</v>
       </c>
       <c r="V20" t="n">
-        <v>3646.303172649174</v>
+        <v>3646.303172649175</v>
       </c>
       <c r="W20" t="n">
-        <v>3310.723488344833</v>
+        <v>3310.723488344834</v>
       </c>
       <c r="X20" t="n">
-        <v>2954.446701049526</v>
+        <v>2954.446701049527</v>
       </c>
       <c r="Y20" t="n">
         <v>2581.496340039488</v>
@@ -5823,13 +5823,13 @@
         <v>176.5382534316294</v>
       </c>
       <c r="H21" t="n">
-        <v>90.86231885396165</v>
+        <v>90.86231885396168</v>
       </c>
       <c r="I21" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="J21" t="n">
-        <v>229.0068924004454</v>
+        <v>229.0068924004455</v>
       </c>
       <c r="K21" t="n">
         <v>546.3544619044453</v>
@@ -5838,19 +5838,19 @@
         <v>1019.389973380253</v>
       </c>
       <c r="M21" t="n">
-        <v>1590.75697180113</v>
+        <v>1298.257064738274</v>
       </c>
       <c r="N21" t="n">
-        <v>1929.420874355517</v>
+        <v>1899.155092367533</v>
       </c>
       <c r="O21" t="n">
-        <v>1929.420874355517</v>
+        <v>1899.155092367533</v>
       </c>
       <c r="P21" t="n">
-        <v>2333.440627329265</v>
+        <v>2303.174845341281</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.597936278806</v>
+        <v>2523.332154290822</v>
       </c>
       <c r="R21" t="n">
         <v>2553.597936278806</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.3908012832192</v>
+        <v>827.0013935148195</v>
       </c>
       <c r="C22" t="n">
-        <v>624.8829317583379</v>
+        <v>675.2541815526856</v>
       </c>
       <c r="D22" t="n">
-        <v>624.8829317583379</v>
+        <v>542.326513106123</v>
       </c>
       <c r="E22" t="n">
-        <v>494.1588091417181</v>
+        <v>411.602390489503</v>
       </c>
       <c r="F22" t="n">
-        <v>364.4578326095809</v>
+        <v>281.9014139573657</v>
       </c>
       <c r="G22" t="n">
-        <v>214.3628908127826</v>
+        <v>281.9014139573657</v>
       </c>
       <c r="H22" t="n">
-        <v>89.05928897577574</v>
+        <v>156.5978121203587</v>
       </c>
       <c r="I22" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="J22" t="n">
-        <v>180.0573524096619</v>
+        <v>180.0573524096617</v>
       </c>
       <c r="K22" t="n">
-        <v>448.594222264045</v>
+        <v>448.5942222640447</v>
       </c>
       <c r="L22" t="n">
-        <v>843.044061536281</v>
+        <v>843.0440615362807</v>
       </c>
       <c r="M22" t="n">
-        <v>1268.409439686853</v>
+        <v>1268.409439686852</v>
       </c>
       <c r="N22" t="n">
         <v>1689.495778180876</v>
       </c>
       <c r="O22" t="n">
-        <v>2063.706932961936</v>
+        <v>2063.706932961935</v>
       </c>
       <c r="P22" t="n">
-        <v>2362.820008788275</v>
+        <v>2362.820008788274</v>
       </c>
       <c r="Q22" t="n">
-        <v>2491.658300986147</v>
+        <v>2491.658300986146</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.853154936366</v>
+        <v>2437.853154936364</v>
       </c>
       <c r="S22" t="n">
-        <v>2270.656942136365</v>
+        <v>2270.656942136364</v>
       </c>
       <c r="T22" t="n">
-        <v>2067.869245085059</v>
+        <v>2067.869245085058</v>
       </c>
       <c r="U22" t="n">
-        <v>1795.978199568988</v>
+        <v>1795.978199568986</v>
       </c>
       <c r="V22" t="n">
-        <v>1558.482682328874</v>
+        <v>1558.482682328872</v>
       </c>
       <c r="W22" t="n">
-        <v>1286.254483257687</v>
+        <v>1286.254483257684</v>
       </c>
       <c r="X22" t="n">
-        <v>1075.453903325443</v>
+        <v>1075.45390332544</v>
       </c>
       <c r="Y22" t="n">
-        <v>871.8502951476856</v>
+        <v>871.8502951476828</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2212.08547094114</v>
+        <v>2212.085470941138</v>
       </c>
       <c r="C23" t="n">
-        <v>1860.311924966501</v>
+        <v>1860.3119249665</v>
       </c>
       <c r="D23" t="n">
         <v>1519.235197325524</v>
@@ -5975,43 +5975,43 @@
         <v>1150.635915693053</v>
       </c>
       <c r="F23" t="n">
-        <v>756.8389818692187</v>
+        <v>756.8389818692183</v>
       </c>
       <c r="G23" t="n">
-        <v>359.8894215699027</v>
+        <v>359.8894215699021</v>
       </c>
       <c r="H23" t="n">
-        <v>89.0592889757765</v>
+        <v>89.05928897577576</v>
       </c>
       <c r="I23" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577576</v>
       </c>
       <c r="J23" t="n">
-        <v>355.626240869835</v>
+        <v>355.6262408698349</v>
       </c>
       <c r="K23" t="n">
-        <v>805.8795196512416</v>
+        <v>805.8795196512415</v>
       </c>
       <c r="L23" t="n">
-        <v>1401.360287955899</v>
+        <v>1401.3602879559</v>
       </c>
       <c r="M23" t="n">
         <v>2095.61681699942</v>
       </c>
       <c r="N23" t="n">
-        <v>2805.720950884552</v>
+        <v>2805.720950884553</v>
       </c>
       <c r="O23" t="n">
         <v>3462.916887082291</v>
       </c>
       <c r="P23" t="n">
-        <v>3989.31741300275</v>
+        <v>3989.317413002751</v>
       </c>
       <c r="Q23" t="n">
-        <v>4336.449538884538</v>
+        <v>4336.449538884539</v>
       </c>
       <c r="R23" t="n">
-        <v>4452.964448788787</v>
+        <v>4452.964448788788</v>
       </c>
       <c r="S23" t="n">
         <v>4381.144427985575</v>
@@ -6026,13 +6026,13 @@
         <v>3646.303172649174</v>
       </c>
       <c r="W23" t="n">
-        <v>3310.723488344834</v>
+        <v>3310.723488344833</v>
       </c>
       <c r="X23" t="n">
-        <v>2954.446701049527</v>
+        <v>2954.446701049526</v>
       </c>
       <c r="Y23" t="n">
-        <v>2581.496340039488</v>
+        <v>2581.496340039487</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>90.86231885396165</v>
       </c>
       <c r="I24" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577576</v>
       </c>
       <c r="J24" t="n">
         <v>229.0068924004454</v>
@@ -6075,16 +6075,16 @@
         <v>1019.389973380253</v>
       </c>
       <c r="M24" t="n">
-        <v>1328.522846726258</v>
+        <v>1590.75697180113</v>
       </c>
       <c r="N24" t="n">
-        <v>1929.420874355517</v>
+        <v>1622.093678181579</v>
       </c>
       <c r="O24" t="n">
-        <v>1929.420874355517</v>
+        <v>2149.578183305058</v>
       </c>
       <c r="P24" t="n">
-        <v>2333.440627329265</v>
+        <v>2553.597936278806</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.597936278806</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.3908012832192</v>
+        <v>977.0963353116181</v>
       </c>
       <c r="C25" t="n">
-        <v>555.6435893210855</v>
+        <v>825.3491233494842</v>
       </c>
       <c r="D25" t="n">
-        <v>422.715920874523</v>
+        <v>692.4214549029215</v>
       </c>
       <c r="E25" t="n">
-        <v>344.0638673449197</v>
+        <v>561.6973322863014</v>
       </c>
       <c r="F25" t="n">
-        <v>214.3628908127826</v>
+        <v>431.9963557541641</v>
       </c>
       <c r="G25" t="n">
-        <v>214.3628908127826</v>
+        <v>281.9014139573656</v>
       </c>
       <c r="H25" t="n">
-        <v>89.05928897577574</v>
+        <v>156.5978121203586</v>
       </c>
       <c r="I25" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577576</v>
       </c>
       <c r="J25" t="n">
-        <v>180.0573524096619</v>
+        <v>180.0573524096617</v>
       </c>
       <c r="K25" t="n">
-        <v>448.594222264045</v>
+        <v>448.5942222640447</v>
       </c>
       <c r="L25" t="n">
-        <v>843.044061536281</v>
+        <v>843.0440615362807</v>
       </c>
       <c r="M25" t="n">
-        <v>1268.409439686853</v>
+        <v>1268.409439686852</v>
       </c>
       <c r="N25" t="n">
         <v>1689.495778180876</v>
       </c>
       <c r="O25" t="n">
-        <v>2063.706932961936</v>
+        <v>2063.706932961935</v>
       </c>
       <c r="P25" t="n">
-        <v>2362.820008788275</v>
+        <v>2362.820008788274</v>
       </c>
       <c r="Q25" t="n">
-        <v>2491.658300986147</v>
+        <v>2491.658300986146</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.853154936366</v>
+        <v>2437.853154936364</v>
       </c>
       <c r="S25" t="n">
-        <v>2270.656942136365</v>
+        <v>2270.656942136364</v>
       </c>
       <c r="T25" t="n">
-        <v>2067.869245085059</v>
+        <v>2067.869245085058</v>
       </c>
       <c r="U25" t="n">
-        <v>1795.978199568988</v>
+        <v>1795.978199568986</v>
       </c>
       <c r="V25" t="n">
-        <v>1558.482682328874</v>
+        <v>1558.482682328872</v>
       </c>
       <c r="W25" t="n">
-        <v>1286.254483257687</v>
+        <v>1555.960017286086</v>
       </c>
       <c r="X25" t="n">
-        <v>1075.453903325443</v>
+        <v>1345.159437353842</v>
       </c>
       <c r="Y25" t="n">
-        <v>871.8502951476856</v>
+        <v>1141.555829176085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2150.200829866672</v>
+        <v>2201.212324984964</v>
       </c>
       <c r="C26" t="n">
-        <v>1809.740055863964</v>
+        <v>1860.751550982256</v>
       </c>
       <c r="D26" t="n">
-        <v>1479.976100194917</v>
+        <v>1530.987595313209</v>
       </c>
       <c r="E26" t="n">
-        <v>1122.689590534377</v>
+        <v>1145.199342714965</v>
       </c>
       <c r="F26" t="n">
-        <v>740.2054286824725</v>
+        <v>734.2134379253573</v>
       </c>
       <c r="G26" t="n">
-        <v>354.5686403550868</v>
+        <v>348.5766495979715</v>
       </c>
       <c r="H26" t="n">
-        <v>95.05127973289105</v>
+        <v>89.05928897577574</v>
       </c>
       <c r="I26" t="n">
         <v>89.05928897577574</v>
@@ -6254,22 +6254,22 @@
         <v>4392.457199957505</v>
       </c>
       <c r="T26" t="n">
-        <v>4190.567682282326</v>
+        <v>4203.199332301523</v>
       </c>
       <c r="U26" t="n">
-        <v>3965.613662005059</v>
+        <v>3949.743569086552</v>
       </c>
       <c r="V26" t="n">
-        <v>3653.1744154378</v>
+        <v>3618.680681742982</v>
       </c>
       <c r="W26" t="n">
-        <v>3300.405760167686</v>
+        <v>3265.912026472867</v>
       </c>
       <c r="X26" t="n">
-        <v>2926.940001906606</v>
+        <v>2920.948011149491</v>
       </c>
       <c r="Y26" t="n">
-        <v>2536.800669930794</v>
+        <v>2559.310422111383</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>89.05928897577574</v>
       </c>
       <c r="J27" t="n">
-        <v>229.0068924004454</v>
+        <v>89.05928897577574</v>
       </c>
       <c r="K27" t="n">
-        <v>546.3544619044453</v>
+        <v>406.4068584797757</v>
       </c>
       <c r="L27" t="n">
-        <v>1019.389973380253</v>
+        <v>879.4423699555839</v>
       </c>
       <c r="M27" t="n">
-        <v>1019.389973380253</v>
+        <v>1450.809368376461</v>
       </c>
       <c r="N27" t="n">
-        <v>1401.936369232038</v>
+        <v>1450.809368376461</v>
       </c>
       <c r="O27" t="n">
-        <v>1929.420874355517</v>
+        <v>1899.155092367533</v>
       </c>
       <c r="P27" t="n">
-        <v>2333.440627329265</v>
+        <v>2303.174845341281</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.597936278806</v>
+        <v>2523.332154290822</v>
       </c>
       <c r="R27" t="n">
         <v>2553.597936278806</v>
@@ -6382,7 +6382,7 @@
         <v>89.05928897577574</v>
       </c>
       <c r="J28" t="n">
-        <v>191.1450002193508</v>
+        <v>191.1450002193509</v>
       </c>
       <c r="K28" t="n">
         <v>470.769517883423</v>
@@ -6449,7 +6449,7 @@
         <v>1150.635915693053</v>
       </c>
       <c r="F29" t="n">
-        <v>756.8389818692186</v>
+        <v>756.8389818692182</v>
       </c>
       <c r="G29" t="n">
         <v>359.889421569902</v>
@@ -6506,7 +6506,7 @@
         <v>2954.446701049527</v>
       </c>
       <c r="Y29" t="n">
-        <v>2581.496340039489</v>
+        <v>2581.496340039488</v>
       </c>
     </row>
     <row r="30">
@@ -6549,16 +6549,16 @@
         <v>1019.389973380253</v>
       </c>
       <c r="M30" t="n">
-        <v>1019.389973380253</v>
+        <v>1590.75697180113</v>
       </c>
       <c r="N30" t="n">
-        <v>1620.288001009513</v>
+        <v>2191.65499943039</v>
       </c>
       <c r="O30" t="n">
-        <v>1929.420874355517</v>
+        <v>2553.597936278806</v>
       </c>
       <c r="P30" t="n">
-        <v>2333.440627329265</v>
+        <v>2553.597936278806</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.597936278806</v>
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>977.0963353116173</v>
+        <v>707.3908012832176</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3491233494835</v>
+        <v>555.6435893210837</v>
       </c>
       <c r="D31" t="n">
-        <v>692.4214549029209</v>
+        <v>422.7159208745211</v>
       </c>
       <c r="E31" t="n">
-        <v>561.6973322863009</v>
+        <v>291.9917982579011</v>
       </c>
       <c r="F31" t="n">
-        <v>431.9963557541638</v>
+        <v>162.2908217257639</v>
       </c>
       <c r="G31" t="n">
-        <v>281.9014139573654</v>
+        <v>156.5978121203586</v>
       </c>
       <c r="H31" t="n">
-        <v>156.5978121203585</v>
+        <v>156.5978121203586</v>
       </c>
       <c r="I31" t="n">
         <v>89.05928897577576</v>
       </c>
       <c r="J31" t="n">
-        <v>180.0573524096619</v>
+        <v>180.0573524096618</v>
       </c>
       <c r="K31" t="n">
-        <v>448.594222264045</v>
+        <v>448.5942222640448</v>
       </c>
       <c r="L31" t="n">
-        <v>843.0440615362809</v>
+        <v>843.0440615362807</v>
       </c>
       <c r="M31" t="n">
-        <v>1268.409439686853</v>
+        <v>1268.409439686852</v>
       </c>
       <c r="N31" t="n">
         <v>1689.495778180876</v>
       </c>
       <c r="O31" t="n">
-        <v>2063.706932961936</v>
+        <v>2063.706932961935</v>
       </c>
       <c r="P31" t="n">
         <v>2362.820008788274</v>
       </c>
       <c r="Q31" t="n">
-        <v>2491.658300986147</v>
+        <v>2491.658300986146</v>
       </c>
       <c r="R31" t="n">
         <v>2437.853154936365</v>
       </c>
       <c r="S31" t="n">
-        <v>2270.656942136365</v>
+        <v>2270.656942136364</v>
       </c>
       <c r="T31" t="n">
         <v>2067.869245085059</v>
@@ -6655,16 +6655,16 @@
         <v>1795.978199568987</v>
       </c>
       <c r="V31" t="n">
-        <v>1795.978199568987</v>
+        <v>1558.482682328873</v>
       </c>
       <c r="W31" t="n">
-        <v>1523.7500004978</v>
+        <v>1286.254483257685</v>
       </c>
       <c r="X31" t="n">
-        <v>1345.159437353841</v>
+        <v>1075.453903325441</v>
       </c>
       <c r="Y31" t="n">
-        <v>1141.555829176084</v>
+        <v>871.8502951476842</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2150.200829866672</v>
+        <v>2160.078932028064</v>
       </c>
       <c r="C32" t="n">
-        <v>1809.740055863964</v>
+        <v>1803.748065106849</v>
       </c>
       <c r="D32" t="n">
-        <v>1479.976100194917</v>
+        <v>1473.984109437802</v>
       </c>
       <c r="E32" t="n">
-        <v>1122.689590534377</v>
+        <v>1116.697599777261</v>
       </c>
       <c r="F32" t="n">
-        <v>740.2054286824725</v>
+        <v>734.2134379253572</v>
       </c>
       <c r="G32" t="n">
-        <v>354.5686403550868</v>
+        <v>348.5766495979715</v>
       </c>
       <c r="H32" t="n">
-        <v>95.05127973289105</v>
+        <v>89.05928897577574</v>
       </c>
       <c r="I32" t="n">
         <v>89.05928897577574</v>
@@ -6704,13 +6704,13 @@
         <v>805.8795196512416</v>
       </c>
       <c r="L32" t="n">
-        <v>1401.360287955899</v>
+        <v>1401.3602879559</v>
       </c>
       <c r="M32" t="n">
-        <v>2095.616816999419</v>
+        <v>2095.61681699942</v>
       </c>
       <c r="N32" t="n">
-        <v>2805.720950884552</v>
+        <v>2805.720950884553</v>
       </c>
       <c r="O32" t="n">
         <v>3462.91688708229</v>
@@ -6731,19 +6731,19 @@
         <v>4219.069425220029</v>
       </c>
       <c r="U32" t="n">
-        <v>3984.237302781371</v>
+        <v>3994.115404942762</v>
       </c>
       <c r="V32" t="n">
-        <v>3653.1744154378</v>
+        <v>3663.052517599192</v>
       </c>
       <c r="W32" t="n">
-        <v>3300.405760167685</v>
+        <v>3310.283862329077</v>
       </c>
       <c r="X32" t="n">
-        <v>2926.940001906606</v>
+        <v>2936.818104067997</v>
       </c>
       <c r="Y32" t="n">
-        <v>2536.800669930794</v>
+        <v>2546.678772092186</v>
       </c>
     </row>
     <row r="33">
@@ -6789,13 +6789,13 @@
         <v>1590.75697180113</v>
       </c>
       <c r="N33" t="n">
-        <v>1590.75697180113</v>
+        <v>2191.65499943039</v>
       </c>
       <c r="O33" t="n">
-        <v>1929.420874355517</v>
+        <v>2553.597936278806</v>
       </c>
       <c r="P33" t="n">
-        <v>2333.440627329265</v>
+        <v>2553.597936278806</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.597936278806</v>
@@ -6847,7 +6847,7 @@
         <v>398.0580398383725</v>
       </c>
       <c r="G34" t="n">
-        <v>259.2758700135043</v>
+        <v>259.2758700135045</v>
       </c>
       <c r="H34" t="n">
         <v>145.285040148428</v>
@@ -6856,13 +6856,13 @@
         <v>89.05928897577574</v>
       </c>
       <c r="J34" t="n">
-        <v>191.145000219351</v>
+        <v>191.1450002193508</v>
       </c>
       <c r="K34" t="n">
-        <v>470.7695178834232</v>
+        <v>470.769517883423</v>
       </c>
       <c r="L34" t="n">
-        <v>876.3070049653481</v>
+        <v>876.3070049653479</v>
       </c>
       <c r="M34" t="n">
         <v>1312.760030925609</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2188.580674965769</v>
+        <v>2229.714067922668</v>
       </c>
       <c r="C35" t="n">
-        <v>1838.241798801668</v>
+        <v>1889.25329391996</v>
       </c>
       <c r="D35" t="n">
-        <v>1479.976100194917</v>
+        <v>1530.987595313209</v>
       </c>
       <c r="E35" t="n">
-        <v>1122.689590534377</v>
+        <v>1145.199342714965</v>
       </c>
       <c r="F35" t="n">
-        <v>740.2054286824725</v>
+        <v>734.2134379253572</v>
       </c>
       <c r="G35" t="n">
-        <v>354.5686403550868</v>
+        <v>348.5766495979715</v>
       </c>
       <c r="H35" t="n">
-        <v>95.05127973289106</v>
+        <v>89.05928897577576</v>
       </c>
       <c r="I35" t="n">
         <v>89.05928897577576</v>
@@ -6971,16 +6971,16 @@
         <v>3994.115404942763</v>
       </c>
       <c r="V35" t="n">
-        <v>3663.052517599192</v>
+        <v>3691.554260536896</v>
       </c>
       <c r="W35" t="n">
-        <v>3310.283862329078</v>
+        <v>3367.287348204486</v>
       </c>
       <c r="X35" t="n">
-        <v>2936.818104067998</v>
+        <v>3006.453239962601</v>
       </c>
       <c r="Y35" t="n">
-        <v>2546.678772092187</v>
+        <v>2616.31390798679</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>89.05928897577576</v>
       </c>
       <c r="J36" t="n">
-        <v>89.05928897577576</v>
+        <v>229.0068924004454</v>
       </c>
       <c r="K36" t="n">
-        <v>89.05928897577576</v>
+        <v>546.3544619044453</v>
       </c>
       <c r="L36" t="n">
-        <v>562.094800451584</v>
+        <v>1019.389973380253</v>
       </c>
       <c r="M36" t="n">
-        <v>801.0383416027787</v>
+        <v>1590.75697180113</v>
       </c>
       <c r="N36" t="n">
-        <v>1401.936369232038</v>
+        <v>2149.578183305058</v>
       </c>
       <c r="O36" t="n">
-        <v>1929.420874355517</v>
+        <v>2149.578183305058</v>
       </c>
       <c r="P36" t="n">
-        <v>2333.440627329265</v>
+        <v>2553.597936278806</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.597936278806</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>897.9069315081039</v>
+        <v>897.9069315081041</v>
       </c>
       <c r="C37" t="n">
-        <v>757.4724915179006</v>
+        <v>757.4724915179008</v>
       </c>
       <c r="D37" t="n">
-        <v>635.8575950432685</v>
+        <v>635.8575950432687</v>
       </c>
       <c r="E37" t="n">
-        <v>516.446244398579</v>
+        <v>516.4462443985792</v>
       </c>
       <c r="F37" t="n">
-        <v>398.0580398383722</v>
+        <v>398.0580398383725</v>
       </c>
       <c r="G37" t="n">
-        <v>259.2758700135045</v>
+        <v>259.2758700135043</v>
       </c>
       <c r="H37" t="n">
-        <v>145.2850401484281</v>
+        <v>145.285040148428</v>
       </c>
       <c r="I37" t="n">
         <v>89.05928897577576</v>
       </c>
       <c r="J37" t="n">
-        <v>191.145000219351</v>
+        <v>191.1450002193508</v>
       </c>
       <c r="K37" t="n">
-        <v>470.7695178834231</v>
+        <v>470.769517883423</v>
       </c>
       <c r="L37" t="n">
-        <v>876.3070049653481</v>
+        <v>876.3070049653479</v>
       </c>
       <c r="M37" t="n">
         <v>1312.760030925609</v>
@@ -7111,28 +7111,28 @@
         <v>2130.23281982007</v>
       </c>
       <c r="P37" t="n">
-        <v>2440.433543456098</v>
+        <v>2440.433543456097</v>
       </c>
       <c r="Q37" t="n">
-        <v>2580.359483463659</v>
+        <v>2580.359483463658</v>
       </c>
       <c r="R37" t="n">
-        <v>2537.867109385808</v>
+        <v>2537.867109385807</v>
       </c>
       <c r="S37" t="n">
-        <v>2381.983668557738</v>
+        <v>2381.983668557737</v>
       </c>
       <c r="T37" t="n">
-        <v>2190.508743478363</v>
+        <v>2190.508743478362</v>
       </c>
       <c r="U37" t="n">
         <v>1929.930469934221</v>
       </c>
       <c r="V37" t="n">
-        <v>1703.747724666037</v>
+        <v>1703.747724666038</v>
       </c>
       <c r="W37" t="n">
-        <v>1442.83229756678</v>
+        <v>1442.832297566781</v>
       </c>
       <c r="X37" t="n">
         <v>1243.344489606467</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2150.200829866672</v>
+        <v>2258.215810860371</v>
       </c>
       <c r="C38" t="n">
-        <v>1809.740055863964</v>
+        <v>1889.25329391996</v>
       </c>
       <c r="D38" t="n">
-        <v>1479.976100194917</v>
+        <v>1530.987595313209</v>
       </c>
       <c r="E38" t="n">
-        <v>1122.689590534377</v>
+        <v>1145.199342714965</v>
       </c>
       <c r="F38" t="n">
-        <v>740.2054286824725</v>
+        <v>734.2134379253572</v>
       </c>
       <c r="G38" t="n">
-        <v>354.5686403550868</v>
+        <v>348.5766495979715</v>
       </c>
       <c r="H38" t="n">
-        <v>95.05127973289105</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="I38" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="J38" t="n">
-        <v>355.626240869835</v>
+        <v>355.6262408698349</v>
       </c>
       <c r="K38" t="n">
-        <v>805.8795196512416</v>
+        <v>805.8795196512424</v>
       </c>
       <c r="L38" t="n">
-        <v>1401.3602879559</v>
+        <v>1401.360287955901</v>
       </c>
       <c r="M38" t="n">
-        <v>2095.61681699942</v>
+        <v>2095.616816999421</v>
       </c>
       <c r="N38" t="n">
-        <v>2805.720950884552</v>
+        <v>2805.720950884553</v>
       </c>
       <c r="O38" t="n">
-        <v>3462.91688708229</v>
+        <v>3462.916887082291</v>
       </c>
       <c r="P38" t="n">
-        <v>3989.31741300275</v>
+        <v>3989.317413002751</v>
       </c>
       <c r="Q38" t="n">
-        <v>4336.449538884538</v>
+        <v>4336.44953888454</v>
       </c>
       <c r="R38" t="n">
-        <v>4452.964448788787</v>
+        <v>4452.964448788789</v>
       </c>
       <c r="S38" t="n">
-        <v>4392.457199957505</v>
+        <v>4392.457199957506</v>
       </c>
       <c r="T38" t="n">
-        <v>4219.069425220029</v>
+        <v>4219.069425220031</v>
       </c>
       <c r="U38" t="n">
-        <v>3984.237302781371</v>
+        <v>3994.115404942764</v>
       </c>
       <c r="V38" t="n">
-        <v>3653.1744154378</v>
+        <v>3691.554260536897</v>
       </c>
       <c r="W38" t="n">
-        <v>3300.405760167686</v>
+        <v>3367.287348204487</v>
       </c>
       <c r="X38" t="n">
-        <v>2926.940001906606</v>
+        <v>3022.323332881111</v>
       </c>
       <c r="Y38" t="n">
-        <v>2536.800669930794</v>
+        <v>2644.815650924493</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>176.5382534316294</v>
       </c>
       <c r="H39" t="n">
-        <v>90.86231885396165</v>
+        <v>90.86231885396167</v>
       </c>
       <c r="I39" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="J39" t="n">
-        <v>89.05928897577574</v>
+        <v>229.0068924004455</v>
       </c>
       <c r="K39" t="n">
-        <v>89.05928897577574</v>
+        <v>546.3544619044455</v>
       </c>
       <c r="L39" t="n">
-        <v>229.6713431819019</v>
+        <v>1019.389973380254</v>
       </c>
       <c r="M39" t="n">
-        <v>801.0383416027787</v>
+        <v>1590.756971801131</v>
       </c>
       <c r="N39" t="n">
-        <v>1401.936369232038</v>
+        <v>2191.65499943039</v>
       </c>
       <c r="O39" t="n">
-        <v>1929.420874355517</v>
+        <v>2553.597936278806</v>
       </c>
       <c r="P39" t="n">
-        <v>2333.440627329265</v>
+        <v>2553.597936278806</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.597936278806</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>897.9069315081043</v>
+        <v>897.9069315081042</v>
       </c>
       <c r="C40" t="n">
-        <v>757.4724915179011</v>
+        <v>757.4724915179008</v>
       </c>
       <c r="D40" t="n">
-        <v>635.8575950432689</v>
+        <v>635.8575950432687</v>
       </c>
       <c r="E40" t="n">
-        <v>516.4462443985793</v>
+        <v>516.4462443985792</v>
       </c>
       <c r="F40" t="n">
         <v>398.0580398383725</v>
@@ -7327,7 +7327,7 @@
         <v>145.2850401484281</v>
       </c>
       <c r="I40" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577579</v>
       </c>
       <c r="J40" t="n">
         <v>191.1450002193508</v>
@@ -7336,7 +7336,7 @@
         <v>470.7695178834229</v>
       </c>
       <c r="L40" t="n">
-        <v>876.3070049653478</v>
+        <v>876.3070049653479</v>
       </c>
       <c r="M40" t="n">
         <v>1312.760030925609</v>
@@ -7348,16 +7348,16 @@
         <v>2130.23281982007</v>
       </c>
       <c r="P40" t="n">
-        <v>2440.433543456097</v>
+        <v>2440.433543456098</v>
       </c>
       <c r="Q40" t="n">
-        <v>2580.359483463658</v>
+        <v>2580.359483463659</v>
       </c>
       <c r="R40" t="n">
-        <v>2537.867109385807</v>
+        <v>2537.867109385808</v>
       </c>
       <c r="S40" t="n">
-        <v>2381.983668557737</v>
+        <v>2381.983668557738</v>
       </c>
       <c r="T40" t="n">
         <v>2190.508743478363</v>
@@ -7375,7 +7375,7 @@
         <v>1243.344489606467</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.053653400641</v>
+        <v>1051.05365340064</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2178.702572804376</v>
+        <v>2229.714067922668</v>
       </c>
       <c r="C41" t="n">
-        <v>1809.740055863964</v>
+        <v>1889.25329391996</v>
       </c>
       <c r="D41" t="n">
-        <v>1479.976100194917</v>
+        <v>1530.987595313209</v>
       </c>
       <c r="E41" t="n">
-        <v>1122.689590534377</v>
+        <v>1145.199342714965</v>
       </c>
       <c r="F41" t="n">
-        <v>740.2054286824725</v>
+        <v>734.2134379253573</v>
       </c>
       <c r="G41" t="n">
-        <v>354.5686403550868</v>
+        <v>348.5766495979715</v>
       </c>
       <c r="H41" t="n">
-        <v>95.05127973289105</v>
+        <v>89.05928897577576</v>
       </c>
       <c r="I41" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577576</v>
       </c>
       <c r="J41" t="n">
-        <v>355.626240869835</v>
+        <v>355.6262408698351</v>
       </c>
       <c r="K41" t="n">
-        <v>805.8795196512408</v>
+        <v>805.8795196512418</v>
       </c>
       <c r="L41" t="n">
-        <v>1401.360287955899</v>
+        <v>1401.3602879559</v>
       </c>
       <c r="M41" t="n">
-        <v>2095.616816999419</v>
+        <v>2095.61681699942</v>
       </c>
       <c r="N41" t="n">
         <v>2805.720950884552</v>
@@ -7427,34 +7427,34 @@
         <v>3462.91688708229</v>
       </c>
       <c r="P41" t="n">
-        <v>3989.317413002749</v>
+        <v>3989.31741300275</v>
       </c>
       <c r="Q41" t="n">
-        <v>4336.449538884538</v>
+        <v>4336.449538884539</v>
       </c>
       <c r="R41" t="n">
-        <v>4452.964448788787</v>
+        <v>4452.964448788788</v>
       </c>
       <c r="S41" t="n">
-        <v>4392.457199957505</v>
+        <v>4392.457199957506</v>
       </c>
       <c r="T41" t="n">
-        <v>4219.069425220029</v>
+        <v>4219.06942522003</v>
       </c>
       <c r="U41" t="n">
-        <v>3994.115404942762</v>
+        <v>3994.115404942763</v>
       </c>
       <c r="V41" t="n">
-        <v>3663.052517599192</v>
+        <v>3691.554260536896</v>
       </c>
       <c r="W41" t="n">
-        <v>3310.283862329077</v>
+        <v>3367.287348204485</v>
       </c>
       <c r="X41" t="n">
-        <v>2936.818104067997</v>
+        <v>3006.453239962601</v>
       </c>
       <c r="Y41" t="n">
-        <v>2546.678772092186</v>
+        <v>2616.31390798679</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>618.1736759186999</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9362209132445</v>
+        <v>458.9362209132444</v>
       </c>
       <c r="F42" t="n">
         <v>312.4016629401294</v>
@@ -7482,31 +7482,31 @@
         <v>176.5382534316294</v>
       </c>
       <c r="H42" t="n">
-        <v>90.86231885396165</v>
+        <v>90.86231885396164</v>
       </c>
       <c r="I42" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577576</v>
       </c>
       <c r="J42" t="n">
-        <v>229.0068924004454</v>
+        <v>229.0068924004455</v>
       </c>
       <c r="K42" t="n">
-        <v>546.3544619044453</v>
+        <v>546.3544619044454</v>
       </c>
       <c r="L42" t="n">
-        <v>1019.389973380253</v>
+        <v>1019.389973380254</v>
       </c>
       <c r="M42" t="n">
-        <v>1019.389973380253</v>
+        <v>1590.756971801131</v>
       </c>
       <c r="N42" t="n">
-        <v>1620.288001009513</v>
+        <v>2191.65499943039</v>
       </c>
       <c r="O42" t="n">
-        <v>2147.772506132992</v>
+        <v>2553.597936278806</v>
       </c>
       <c r="P42" t="n">
-        <v>2551.792259106739</v>
+        <v>2553.597936278806</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.597936278806</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>897.9069315081041</v>
+        <v>897.906931508104</v>
       </c>
       <c r="C43" t="n">
-        <v>757.4724915179008</v>
+        <v>757.4724915179006</v>
       </c>
       <c r="D43" t="n">
-        <v>635.8575950432687</v>
+        <v>635.8575950432685</v>
       </c>
       <c r="E43" t="n">
-        <v>516.4462443985792</v>
+        <v>516.4462443985789</v>
       </c>
       <c r="F43" t="n">
-        <v>398.0580398383725</v>
+        <v>398.0580398383721</v>
       </c>
       <c r="G43" t="n">
-        <v>259.2758700135045</v>
+        <v>259.2758700135042</v>
       </c>
       <c r="H43" t="n">
-        <v>145.285040148428</v>
+        <v>145.2850401484281</v>
       </c>
       <c r="I43" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577576</v>
       </c>
       <c r="J43" t="n">
-        <v>191.1450002193509</v>
+        <v>191.1450002193508</v>
       </c>
       <c r="K43" t="n">
-        <v>470.7695178834231</v>
+        <v>470.769517883423</v>
       </c>
       <c r="L43" t="n">
-        <v>876.307004965348</v>
+        <v>876.3070049653479</v>
       </c>
       <c r="M43" t="n">
         <v>1312.760030925609</v>
@@ -7582,25 +7582,25 @@
         <v>1744.934017229321</v>
       </c>
       <c r="O43" t="n">
-        <v>2130.232819820071</v>
+        <v>2130.23281982007</v>
       </c>
       <c r="P43" t="n">
-        <v>2440.433543456098</v>
+        <v>2440.433543456097</v>
       </c>
       <c r="Q43" t="n">
-        <v>2580.359483463659</v>
+        <v>2580.359483463658</v>
       </c>
       <c r="R43" t="n">
-        <v>2537.867109385808</v>
+        <v>2537.867109385807</v>
       </c>
       <c r="S43" t="n">
-        <v>2381.983668557738</v>
+        <v>2381.983668557737</v>
       </c>
       <c r="T43" t="n">
-        <v>2190.508743478363</v>
+        <v>2190.508743478362</v>
       </c>
       <c r="U43" t="n">
-        <v>1929.93046993422</v>
+        <v>1929.930469934221</v>
       </c>
       <c r="V43" t="n">
         <v>1703.747724666037</v>
@@ -7609,7 +7609,7 @@
         <v>1442.83229756678</v>
       </c>
       <c r="X43" t="n">
-        <v>1243.344489606466</v>
+        <v>1243.344489606467</v>
       </c>
       <c r="Y43" t="n">
         <v>1051.05365340064</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2188.580674965768</v>
+        <v>2172.710582047261</v>
       </c>
       <c r="C44" t="n">
-        <v>1819.618158025356</v>
+        <v>1832.249808044553</v>
       </c>
       <c r="D44" t="n">
-        <v>1479.976100194917</v>
+        <v>1502.485852375506</v>
       </c>
       <c r="E44" t="n">
-        <v>1122.689590534377</v>
+        <v>1145.199342714965</v>
       </c>
       <c r="F44" t="n">
-        <v>740.2054286824725</v>
+        <v>734.2134379253573</v>
       </c>
       <c r="G44" t="n">
-        <v>354.5686403550868</v>
+        <v>348.5766495979715</v>
       </c>
       <c r="H44" t="n">
-        <v>95.05127973289105</v>
+        <v>89.05928897577576</v>
       </c>
       <c r="I44" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577576</v>
       </c>
       <c r="J44" t="n">
-        <v>355.626240869835</v>
+        <v>355.6262408698351</v>
       </c>
       <c r="K44" t="n">
-        <v>805.8795196512416</v>
+        <v>805.8795196512419</v>
       </c>
       <c r="L44" t="n">
         <v>1401.3602879559</v>
       </c>
       <c r="M44" t="n">
-        <v>2095.61681699942</v>
+        <v>2095.616816999421</v>
       </c>
       <c r="N44" t="n">
-        <v>2805.720950884552</v>
+        <v>2805.720950884554</v>
       </c>
       <c r="O44" t="n">
-        <v>3462.91688708229</v>
+        <v>3462.916887082292</v>
       </c>
       <c r="P44" t="n">
         <v>3989.31741300275</v>
       </c>
       <c r="Q44" t="n">
-        <v>4336.449538884538</v>
+        <v>4336.449538884539</v>
       </c>
       <c r="R44" t="n">
-        <v>4452.964448788787</v>
+        <v>4452.964448788788</v>
       </c>
       <c r="S44" t="n">
-        <v>4392.457199957505</v>
+        <v>4392.457199957506</v>
       </c>
       <c r="T44" t="n">
-        <v>4219.069425220029</v>
+        <v>4219.06942522003</v>
       </c>
       <c r="U44" t="n">
-        <v>3994.115404942762</v>
+        <v>3994.115404942763</v>
       </c>
       <c r="V44" t="n">
-        <v>3663.052517599192</v>
+        <v>3675.684167618389</v>
       </c>
       <c r="W44" t="n">
-        <v>3310.283862329077</v>
+        <v>3322.915512348274</v>
       </c>
       <c r="X44" t="n">
-        <v>2936.818104067997</v>
+        <v>2949.449754087194</v>
       </c>
       <c r="Y44" t="n">
-        <v>2546.678772092186</v>
+        <v>2559.310422111383</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>618.1736759186999</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9362209132445</v>
+        <v>458.9362209132444</v>
       </c>
       <c r="F45" t="n">
         <v>312.4016629401294</v>
@@ -7719,34 +7719,34 @@
         <v>176.5382534316294</v>
       </c>
       <c r="H45" t="n">
-        <v>90.86231885396165</v>
+        <v>90.86231885396164</v>
       </c>
       <c r="I45" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577576</v>
       </c>
       <c r="J45" t="n">
-        <v>229.0068924004454</v>
+        <v>229.0068924004455</v>
       </c>
       <c r="K45" t="n">
-        <v>546.3544619044453</v>
+        <v>229.0068924004455</v>
       </c>
       <c r="L45" t="n">
-        <v>1019.389973380253</v>
+        <v>702.0424038762537</v>
       </c>
       <c r="M45" t="n">
-        <v>1298.257064738274</v>
+        <v>1273.409402297131</v>
       </c>
       <c r="N45" t="n">
-        <v>1899.155092367533</v>
+        <v>1874.30742992639</v>
       </c>
       <c r="O45" t="n">
-        <v>1899.155092367533</v>
+        <v>2401.791935049869</v>
       </c>
       <c r="P45" t="n">
-        <v>2303.174845341281</v>
+        <v>2553.597936278806</v>
       </c>
       <c r="Q45" t="n">
-        <v>2523.332154290822</v>
+        <v>2553.597936278806</v>
       </c>
       <c r="R45" t="n">
         <v>2553.597936278806</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>897.9069315081042</v>
+        <v>897.9069315081043</v>
       </c>
       <c r="C46" t="n">
-        <v>757.4724915179008</v>
+        <v>757.4724915179009</v>
       </c>
       <c r="D46" t="n">
-        <v>635.8575950432687</v>
+        <v>635.8575950432688</v>
       </c>
       <c r="E46" t="n">
-        <v>516.4462443985792</v>
+        <v>516.4462443985793</v>
       </c>
       <c r="F46" t="n">
-        <v>398.0580398383725</v>
+        <v>398.0580398383726</v>
       </c>
       <c r="G46" t="n">
-        <v>259.2758700135045</v>
+        <v>259.2758700135046</v>
       </c>
       <c r="H46" t="n">
         <v>145.2850401484281</v>
       </c>
       <c r="I46" t="n">
-        <v>89.05928897577574</v>
+        <v>89.05928897577576</v>
       </c>
       <c r="J46" t="n">
-        <v>191.145000219351</v>
+        <v>191.1450002193509</v>
       </c>
       <c r="K46" t="n">
         <v>470.7695178834231</v>
       </c>
       <c r="L46" t="n">
-        <v>876.3070049653479</v>
+        <v>876.3070049653481</v>
       </c>
       <c r="M46" t="n">
         <v>1312.760030925609</v>
@@ -7822,13 +7822,13 @@
         <v>2130.23281982007</v>
       </c>
       <c r="P46" t="n">
-        <v>2440.433543456097</v>
+        <v>2440.433543456098</v>
       </c>
       <c r="Q46" t="n">
-        <v>2580.359483463658</v>
+        <v>2580.359483463659</v>
       </c>
       <c r="R46" t="n">
-        <v>2537.867109385807</v>
+        <v>2537.867109385808</v>
       </c>
       <c r="S46" t="n">
         <v>2381.983668557737</v>
@@ -7849,7 +7849,7 @@
         <v>1243.344489606467</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.05365340064</v>
+        <v>1051.053653400641</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>258.8041889468121</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L2" t="n">
-        <v>221.1666787354324</v>
+        <v>269.6097064983847</v>
       </c>
       <c r="M2" t="n">
-        <v>214.1012135983212</v>
+        <v>264.5839477933977</v>
       </c>
       <c r="N2" t="n">
-        <v>261.34821032935</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
         <v>264.993021668346</v>
@@ -8064,13 +8064,13 @@
         <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577182</v>
+        <v>174.1046492916817</v>
       </c>
       <c r="N3" t="n">
         <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>175.3317291273678</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
         <v>175.0047203318838</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>255.9772818167572</v>
+        <v>253.8036932114795</v>
       </c>
       <c r="L5" t="n">
         <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
-        <v>205.6249188705004</v>
+        <v>259.4212368511231</v>
       </c>
       <c r="N5" t="n">
-        <v>255.9144619035325</v>
+        <v>258.0880505088102</v>
       </c>
       <c r="O5" t="n">
         <v>260.1731688314972</v>
       </c>
       <c r="P5" t="n">
-        <v>264.7836813017771</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q5" t="n">
         <v>207.1020630664798</v>
@@ -8298,22 +8298,22 @@
         <v>179.4738158616228</v>
       </c>
       <c r="L6" t="n">
-        <v>175.9947778369091</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>176.8437648107177</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>157.002365647822</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>178.4699366681766</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>164.8423259806504</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>184.1624432744798</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,13 +8456,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>60.49244923701499</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.704256053088869</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>58.78819318392613</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>54.42200251657025</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>72.85507260968015</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>127.2770751262504</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-5.258016244624741e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-5.258016244624741e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>304.2003074256064</v>
+        <v>51.29350129165638</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>93.57486856939362</v>
+        <v>93.57486856939363</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>156.4291245048363</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>21.38397270171658</v>
+        <v>200.8555174238556</v>
       </c>
       <c r="V2" t="n">
-        <v>277.2695242750584</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>304.7757764383896</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>244.1712084351584</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>244.1712084351605</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>45.81489372419443</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.6110736349459</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>182.5413319281158</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.7769013369082</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>272.3910762338882</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>81.44411805465967</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>81.44411805465811</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>129.868002822541</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.843255923439358</v>
       </c>
       <c r="T16" t="n">
-        <v>130.3774767264174</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>274.9895720648154</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>275.3233540843799</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>118.4144863092839</v>
+        <v>9.187630530848082</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.4168813904539</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>128.4039667668159</v>
       </c>
       <c r="G19" t="n">
-        <v>148.5939923788304</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>118.4144863092873</v>
       </c>
       <c r="C22" t="n">
-        <v>68.54694901287992</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>131.5983917620969</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>148.5939923788305</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>66.86313791313688</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>51.55134839614638</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>148.5939923788304</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>66.86313791313688</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>267.0084786881177</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>142.9579128694793</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>124.0505658186368</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>235.1205620677126</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>31.88791662040219</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1361629.122587538</v>
+        <v>1361629.122587539</v>
       </c>
     </row>
     <row r="6">
@@ -26314,7 +26314,7 @@
         <v>16429.40024168569</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660709</v>
@@ -26323,13 +26323,13 @@
         <v>19636.51795612177</v>
       </c>
       <c r="F2" t="n">
-        <v>20120.54995319181</v>
+        <v>20120.54995319185</v>
       </c>
       <c r="G2" t="n">
         <v>20365.83915939419</v>
       </c>
       <c r="H2" t="n">
-        <v>20365.83915939421</v>
+        <v>20365.8391593942</v>
       </c>
       <c r="I2" t="n">
         <v>20365.83915939422</v>
@@ -26347,13 +26347,13 @@
         <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>540794.9637074092</v>
       </c>
       <c r="E3" t="n">
-        <v>839729.8277266113</v>
+        <v>839729.8277266116</v>
       </c>
       <c r="F3" t="n">
-        <v>8959.715401768892</v>
+        <v>8959.715401768943</v>
       </c>
       <c r="G3" t="n">
-        <v>4653.949603123468</v>
+        <v>4653.949603123311</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>22168.21990750546</v>
+        <v>22168.21990750554</v>
       </c>
       <c r="K3" t="n">
         <v>852.8104317184983</v>
       </c>
       <c r="L3" t="n">
-        <v>64558.11447484506</v>
+        <v>64558.11447484495</v>
       </c>
       <c r="M3" t="n">
-        <v>213855.8416039916</v>
+        <v>213855.8416039918</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8959.715401768901</v>
+        <v>8959.715401768972</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298681.761005174</v>
+        <v>298681.7610051741</v>
       </c>
       <c r="C4" t="n">
         <v>389279.094329008</v>
@@ -26424,40 +26424,40 @@
         <v>250996.9018570691</v>
       </c>
       <c r="E4" t="n">
-        <v>7476.491280059399</v>
+        <v>7476.491280059421</v>
       </c>
       <c r="F4" t="n">
-        <v>18554.92191239231</v>
+        <v>18554.92191239238</v>
       </c>
       <c r="G4" t="n">
-        <v>24169.40404002666</v>
+        <v>24169.40404002657</v>
       </c>
       <c r="H4" t="n">
-        <v>24169.40404002667</v>
+        <v>24169.40404002661</v>
       </c>
       <c r="I4" t="n">
-        <v>24169.40404002671</v>
+        <v>24169.40404002663</v>
       </c>
       <c r="J4" t="n">
-        <v>27854.64513918072</v>
+        <v>27854.64513918076</v>
       </c>
       <c r="K4" t="n">
-        <v>24169.40404002667</v>
+        <v>24169.4040400266</v>
       </c>
       <c r="L4" t="n">
         <v>27854.64513918076</v>
       </c>
       <c r="M4" t="n">
+        <v>27854.6451391807</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27854.64513918065</v>
+      </c>
+      <c r="O4" t="n">
+        <v>27854.64513918071</v>
+      </c>
+      <c r="P4" t="n">
         <v>27854.64513918069</v>
-      </c>
-      <c r="N4" t="n">
-        <v>27854.64513918075</v>
-      </c>
-      <c r="O4" t="n">
-        <v>27854.64513918077</v>
-      </c>
-      <c r="P4" t="n">
-        <v>27854.64513918073</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>62074.5699651066</v>
       </c>
       <c r="E5" t="n">
-        <v>96455.95626820269</v>
+        <v>96455.95626820273</v>
       </c>
       <c r="F5" t="n">
-        <v>97397.49916084183</v>
+        <v>97397.49916084186</v>
       </c>
       <c r="G5" t="n">
-        <v>97886.56527232306</v>
+        <v>97886.56527232309</v>
       </c>
       <c r="H5" t="n">
-        <v>97886.56527232307</v>
+        <v>97886.56527232309</v>
       </c>
       <c r="I5" t="n">
         <v>97886.56527232307</v>
@@ -26494,7 +26494,7 @@
         <v>98828.10816496221</v>
       </c>
       <c r="K5" t="n">
-        <v>97886.56527232309</v>
+        <v>97886.56527232307</v>
       </c>
       <c r="L5" t="n">
         <v>98828.10816496221</v>
@@ -26503,13 +26503,13 @@
         <v>98828.10816496222</v>
       </c>
       <c r="N5" t="n">
-        <v>98828.10816496221</v>
+        <v>98828.10816496224</v>
       </c>
       <c r="O5" t="n">
-        <v>98828.10816496221</v>
+        <v>98828.10816496222</v>
       </c>
       <c r="P5" t="n">
-        <v>98828.10816496221</v>
+        <v>98828.10816496222</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-358544.9228077428</v>
+        <v>-358954.5872082351</v>
       </c>
       <c r="C6" t="n">
-        <v>-418419.8492380157</v>
+        <v>-418419.8492380158</v>
       </c>
       <c r="D6" t="n">
         <v>-833340.3912829778</v>
       </c>
       <c r="E6" t="n">
-        <v>-924025.7573187517</v>
+        <v>-924114.7099478005</v>
       </c>
       <c r="F6" t="n">
-        <v>-104791.5865218112</v>
+        <v>-104832.1359511529</v>
       </c>
       <c r="G6" t="n">
-        <v>-106344.079756079</v>
+        <v>-106360.1002648001</v>
       </c>
       <c r="H6" t="n">
-        <v>-101690.1301529556</v>
+        <v>-101706.1506616768</v>
       </c>
       <c r="I6" t="n">
-        <v>-101690.1301529556</v>
+        <v>-101706.1506616768</v>
       </c>
       <c r="J6" t="n">
-        <v>-128324.9289650413</v>
+        <v>-128324.9289650414</v>
       </c>
       <c r="K6" t="n">
-        <v>-102542.9405846741</v>
+        <v>-102558.9610933953</v>
       </c>
       <c r="L6" t="n">
-        <v>-170714.8235323809</v>
+        <v>-170714.8235323808</v>
       </c>
       <c r="M6" t="n">
-        <v>-320012.5506615274</v>
+        <v>-320012.5506615276</v>
       </c>
       <c r="N6" t="n">
-        <v>-106156.7090575359</v>
+        <v>-106156.7090575358</v>
       </c>
       <c r="O6" t="n">
         <v>-115116.4244593048</v>
@@ -26695,37 +26695,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="G2" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="H2" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="I2" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="J2" t="n">
         <v>28.21672550832656</v>
       </c>
       <c r="K2" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="L2" t="n">
         <v>28.21672550832659</v>
       </c>
       <c r="M2" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="N2" t="n">
+        <v>28.21672550832657</v>
+      </c>
+      <c r="O2" t="n">
+        <v>28.21672550832655</v>
+      </c>
+      <c r="P2" t="n">
         <v>28.21672550832654</v>
-      </c>
-      <c r="O2" t="n">
-        <v>28.21672550832659</v>
-      </c>
-      <c r="P2" t="n">
-        <v>28.21672550832656</v>
       </c>
     </row>
     <row r="3">
@@ -26917,25 +26917,25 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="G2" t="n">
-        <v>5.817437003904335</v>
+        <v>5.817437003904139</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.19964425221107</v>
+        <v>11.19964425221124</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611535</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.19964425221113</v>
+        <v>11.19964425221121</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>558.4548396189398</v>
       </c>
       <c r="E3" t="n">
-        <v>726.2898008827207</v>
+        <v>726.2898008827209</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>201.2890599426796</v>
       </c>
       <c r="E4" t="n">
-        <v>858.1557342738945</v>
+        <v>858.1557342738951</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.48273419507655</v>
+        <v>50.48273419507632</v>
       </c>
       <c r="K4" t="n">
         <v>3.313583785546371</v>
@@ -27042,7 +27042,7 @@
         <v>201.2890599426794</v>
       </c>
       <c r="M4" t="n">
-        <v>858.1557342738944</v>
+        <v>858.1557342738951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,19 +27154,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="L2" t="n">
-        <v>5.817437003904335</v>
+        <v>5.817437003904139</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.19964425221107</v>
+        <v>11.19964425221124</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>201.2890599426796</v>
       </c>
       <c r="M4" t="n">
-        <v>858.1557342738945</v>
+        <v>858.1557342738951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>303.3895403290266</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852174</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>185.4890866381922</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>107.1623462603244</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>37.2096056932131</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,16 +27509,16 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>155.5000147300514</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>175.4553912751407</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>207.2297908818962</v>
+        <v>201.2122489658431</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>138.4103789838317</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>94.9383138278547</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>111.3754696522371</v>
       </c>
       <c r="I4" t="n">
         <v>154.2024705022108</v>
@@ -27561,7 +27561,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>219.3814066792774</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>168.1019191570182</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>328.9375236828579</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>311.4765737903849</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>300.8867236400603</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,7 +27634,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>151.2518041370232</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>115.6794790769778</v>
       </c>
       <c r="S5" t="n">
         <v>205.8118405263978</v>
@@ -27670,16 +27670,16 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>197.5380718081886</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>323.8951661091115</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>315.9347826978464</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>103.8487624747783</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>97.68541551605148</v>
       </c>
       <c r="G6" t="n">
-        <v>89.88439153640687</v>
+        <v>83.47187043311668</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>57.71160912282181</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>33.00675924206476</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>197.898665180297</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>151.9766672228548</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>113.4505031180052</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>93.82765530564856</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>114.1315082847361</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
         <v>161.6656840978772</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>28.26752554218587</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>171.9133374084145</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>164.7883353714722</v>
       </c>
     </row>
     <row r="8">
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>126.8449921489595</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>157.8315260226345</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27910,16 +27910,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>72.66688054683266</v>
       </c>
       <c r="W8" t="n">
-        <v>286.0907007124202</v>
+        <v>94.15559079411076</v>
       </c>
       <c r="X8" t="n">
         <v>114.6457227551668</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>181.3516874688573</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>101.7860971892908</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27941,16 +27941,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27989,13 +27989,13 @@
         <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
-        <v>113.8708469682093</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>79.05607447249878</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>162.0163215777613</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>31.43762041328876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="C14" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="D14" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="E14" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="F14" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="G14" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="H14" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="I14" t="n">
         <v>5.932070849544147</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="T14" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="U14" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="V14" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="W14" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="X14" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="C16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="D16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="E16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="F16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="G16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="H16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="I16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="J16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="K16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="L16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="M16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="N16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="O16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="P16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="R16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="S16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="T16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="U16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="V16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="W16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="X16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.19964425221112</v>
+        <v>11.19964425221118</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="C17" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="D17" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="E17" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="F17" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="G17" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="H17" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="I17" t="n">
         <v>5.932070849544147</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="T17" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="U17" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="V17" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="W17" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="X17" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="Y17" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="C19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="D19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="E19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="F19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="G19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="H19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="I19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="J19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="K19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="L19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="M19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="N19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="O19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="P19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="R19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="S19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="T19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="U19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="V19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="W19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="X19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.01708125611545</v>
+        <v>17.01708125611532</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="C20" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="D20" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611623</v>
       </c>
       <c r="E20" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="F20" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="G20" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="H20" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="I20" t="n">
         <v>5.932070849544147</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="T20" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="U20" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="V20" t="n">
-        <v>17.01708125611515</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="W20" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="X20" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="C22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="D22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="E22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="F22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="G22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="H22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="I22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="J22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="K22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="L22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="M22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="N22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="O22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="P22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="R22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="S22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="T22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="U22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="V22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="W22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="X22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="Y22" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="C23" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="D23" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611714</v>
       </c>
       <c r="E23" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="F23" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="G23" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="H23" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="I23" t="n">
         <v>5.932070849544147</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="T23" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="U23" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="V23" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="W23" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="X23" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="Y23" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="C25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="D25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="E25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="F25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="G25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="H25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="I25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="J25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="K25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="L25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="M25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="N25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="O25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="P25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="R25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="S25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="T25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="U25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="V25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="W25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="X25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
       <c r="Y25" t="n">
-        <v>17.01708125611549</v>
+        <v>17.01708125611532</v>
       </c>
     </row>
     <row r="26">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>28.21672550832656</v>
       </c>
       <c r="C26" t="n">
         <v>28.21672550832656</v>
@@ -29281,10 +29281,10 @@
         <v>28.21672550832656</v>
       </c>
       <c r="E26" t="n">
-        <v>28.21672550832656</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>28.21672550832656</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>28.21672550832656</v>
@@ -29293,7 +29293,7 @@
         <v>28.21672550832656</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.932070849544147</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29326,22 +29326,22 @@
         <v>28.21672550832656</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>12.50533351900521</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>28.21672550832656</v>
       </c>
-      <c r="V26" t="n">
-        <v>18.43740436854847</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>28.21672550832656</v>
       </c>
     </row>
     <row r="27">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="C29" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="D29" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="E29" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="F29" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="G29" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="H29" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="I29" t="n">
         <v>5.932070849544147</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="T29" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="U29" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="V29" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="W29" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="X29" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="Y29" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="C31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="D31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="E31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="F31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="G31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="I31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="J31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="K31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="L31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="M31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="N31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="O31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="P31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="R31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="S31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="T31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="U31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="V31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="W31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="X31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.01708125611544</v>
+        <v>17.01708125611538</v>
       </c>
     </row>
     <row r="32">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>28.21672550832659</v>
+        <v>12.50533351900458</v>
       </c>
       <c r="D32" t="n">
         <v>28.21672550832659</v>
@@ -29767,7 +29767,7 @@
         <v>28.21672550832659</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>5.932070849544147</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>28.21672550832659</v>
       </c>
       <c r="U32" t="n">
-        <v>18.43740436854873</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28.21672550832658</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>18.4374043685475</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>28.21672550832658</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>28.21672550832658</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="H35" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>5.932070849544147</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,22 +30034,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="T35" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="U35" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>12.50533351900322</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="C37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="D37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="E37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="F37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="G37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="H37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="I37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="J37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="K37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="L37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="M37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="N37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="O37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="P37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="R37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="S37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="T37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="U37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="V37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="W37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="X37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.21672550832658</v>
+        <v>28.21672550832659</v>
       </c>
     </row>
     <row r="38">
@@ -30223,25 +30223,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>28.21672550832654</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>28.21672550832654</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>28.21672550832654</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>28.21672550832654</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="H38" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>5.932070849544118</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="T38" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="U38" t="n">
-        <v>18.43740436854918</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>12.50533351900231</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="C40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="D40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="E40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="F40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="G40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="H40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="I40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="J40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="K40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="L40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="M40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="N40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="O40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="P40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="R40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="S40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="T40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="U40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="V40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="W40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="X40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.21672550832654</v>
+        <v>28.21672550832657</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18.43740436854893</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="D41" t="n">
-        <v>28.21672550832659</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>28.21672550832659</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>28.21672550832659</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="H41" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>5.932070849544118</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,22 +30508,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="T41" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="U41" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>12.50533351900413</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="C43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="D43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="E43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="F43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="G43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="H43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="I43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="J43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="K43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="L43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="M43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="N43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="O43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="P43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="R43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="S43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="T43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="U43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="V43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="W43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="X43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.21672550832659</v>
+        <v>28.21672550832655</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>28.21672550832656</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="D44" t="n">
-        <v>18.43740436854864</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="E44" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="F44" t="n">
-        <v>28.21672550832656</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="H44" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5.932070849544118</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,16 +30745,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="T44" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="U44" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>12.50533351900395</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="C46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="D46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="E46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="F46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="G46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="H46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="I46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="J46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="K46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="L46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="M46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="N46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="O46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="P46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="R46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="S46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="T46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="U46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="V46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="W46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="X46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.21672550832656</v>
+        <v>28.21672550832654</v>
       </c>
     </row>
   </sheetData>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.305591562696622</v>
+        <v>5.305591562696623</v>
       </c>
       <c r="H11" t="n">
         <v>54.3358895914668</v>
       </c>
       <c r="I11" t="n">
-        <v>204.5438187208617</v>
+        <v>204.5438187208618</v>
       </c>
       <c r="J11" t="n">
-        <v>450.3054518944228</v>
+        <v>450.3054518944229</v>
       </c>
       <c r="K11" t="n">
-        <v>674.891142743371</v>
+        <v>674.8911427433711</v>
       </c>
       <c r="L11" t="n">
-        <v>837.2621405302478</v>
+        <v>837.2621405302481</v>
       </c>
       <c r="M11" t="n">
-        <v>931.6154544833539</v>
+        <v>931.615454483354</v>
       </c>
       <c r="N11" t="n">
-        <v>946.6899665108658</v>
+        <v>946.6899665108659</v>
       </c>
       <c r="O11" t="n">
-        <v>893.9324904093012</v>
+        <v>893.9324904093013</v>
       </c>
       <c r="P11" t="n">
-        <v>762.9506987052282</v>
+        <v>762.9506987052283</v>
       </c>
       <c r="Q11" t="n">
-        <v>572.9442008661553</v>
+        <v>572.9442008661554</v>
       </c>
       <c r="R11" t="n">
         <v>333.277366000242</v>
@@ -31789,7 +31789,7 @@
         <v>120.9011677349494</v>
       </c>
       <c r="T11" t="n">
-        <v>23.22522706570447</v>
+        <v>23.22522706570448</v>
       </c>
       <c r="U11" t="n">
         <v>0.4244473250157297</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.838741749795652</v>
+        <v>2.838741749795653</v>
       </c>
       <c r="H12" t="n">
-        <v>27.41626900460538</v>
+        <v>27.41626900460539</v>
       </c>
       <c r="I12" t="n">
-        <v>97.73738042059594</v>
+        <v>97.73738042059595</v>
       </c>
       <c r="J12" t="n">
-        <v>268.198842247141</v>
+        <v>268.1988422471411</v>
       </c>
       <c r="K12" t="n">
         <v>458.3945394834498</v>
@@ -31850,16 +31850,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>487.180715986163</v>
+        <v>487.1807159861625</v>
       </c>
       <c r="O12" t="n">
-        <v>675.4088758823016</v>
+        <v>675.4088758823017</v>
       </c>
       <c r="P12" t="n">
-        <v>542.0751679938734</v>
+        <v>542.0751679938735</v>
       </c>
       <c r="Q12" t="n">
-        <v>362.3628942370731</v>
+        <v>362.3628942370732</v>
       </c>
       <c r="R12" t="n">
         <v>176.2510009215231</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.379905723512892</v>
+        <v>2.379905723512893</v>
       </c>
       <c r="H13" t="n">
-        <v>21.15952543268736</v>
+        <v>21.15952543268737</v>
       </c>
       <c r="I13" t="n">
-        <v>71.5702557580059</v>
+        <v>71.57025575800591</v>
       </c>
       <c r="J13" t="n">
-        <v>168.2593346523614</v>
+        <v>168.2593346523615</v>
       </c>
       <c r="K13" t="n">
-        <v>276.5017740590432</v>
+        <v>276.5017740590433</v>
       </c>
       <c r="L13" t="n">
         <v>353.827074566635</v>
       </c>
       <c r="M13" t="n">
-        <v>373.0610399139345</v>
+        <v>373.0610399139346</v>
       </c>
       <c r="N13" t="n">
-        <v>364.1904822172049</v>
+        <v>364.190482217205</v>
       </c>
       <c r="O13" t="n">
-        <v>336.3888562652587</v>
+        <v>336.3888562652588</v>
       </c>
       <c r="P13" t="n">
         <v>287.8387795055955</v>
       </c>
       <c r="Q13" t="n">
-        <v>199.2846510843386</v>
+        <v>199.2846510843387</v>
       </c>
       <c r="R13" t="n">
         <v>107.0092155317706</v>
       </c>
       <c r="S13" t="n">
-        <v>41.47526610885647</v>
+        <v>41.47526610885648</v>
       </c>
       <c r="T13" t="n">
-        <v>10.16868809137326</v>
+        <v>10.16868809137327</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1298130394643397</v>
+        <v>0.1298130394643398</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,19 +32084,19 @@
         <v>616.368027735236</v>
       </c>
       <c r="M15" t="n">
-        <v>454.3894615442447</v>
+        <v>719.2724161653283</v>
       </c>
       <c r="N15" t="n">
         <v>738.3094167593528</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>508.1951705539557</v>
       </c>
       <c r="P15" t="n">
-        <v>542.0751679938735</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>362.3628942370732</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32321,13 +32321,13 @@
         <v>616.368027735236</v>
       </c>
       <c r="M18" t="n">
-        <v>719.2724161653283</v>
+        <v>528.5445347824068</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4264621382692</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>675.4088758823017</v>
       </c>
       <c r="P18" t="n">
         <v>542.0751679938735</v>
@@ -32558,10 +32558,10 @@
         <v>616.368027735236</v>
       </c>
       <c r="M21" t="n">
-        <v>719.2724161653283</v>
+        <v>423.8179645866854</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4264621382692</v>
+        <v>738.3094167593528</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -32573,7 +32573,7 @@
         <v>362.3628942370732</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>176.2510009215231</v>
       </c>
       <c r="S21" t="n">
         <v>52.72838294028325</v>
@@ -32795,19 +32795,19 @@
         <v>616.368027735236</v>
       </c>
       <c r="M24" t="n">
-        <v>454.3894615442447</v>
+        <v>719.2724161653283</v>
       </c>
       <c r="N24" t="n">
-        <v>738.3094167593528</v>
+        <v>162.9949508514633</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>675.4088758823017</v>
       </c>
       <c r="P24" t="n">
         <v>542.0751679938735</v>
       </c>
       <c r="Q24" t="n">
-        <v>362.3628942370732</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,7 +33023,7 @@
         <v>97.73738042059595</v>
       </c>
       <c r="J27" t="n">
-        <v>268.1988422471411</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>458.3945394834498</v>
@@ -33032,13 +33032,13 @@
         <v>616.368027735236</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>719.2724161653283</v>
       </c>
       <c r="N27" t="n">
-        <v>517.7522129437218</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>675.4088758823017</v>
+        <v>595.4707131222954</v>
       </c>
       <c r="P27" t="n">
         <v>542.0751679938735</v>
@@ -33047,7 +33047,7 @@
         <v>362.3628942370732</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>176.2510009215231</v>
       </c>
       <c r="S27" t="n">
         <v>52.72838294028325</v>
@@ -33269,19 +33269,19 @@
         <v>616.368027735236</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>719.2724161653283</v>
       </c>
       <c r="N30" t="n">
         <v>738.3094167593528</v>
       </c>
       <c r="O30" t="n">
-        <v>454.8516720666708</v>
+        <v>508.1951705539557</v>
       </c>
       <c r="P30" t="n">
-        <v>542.0751679938735</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>362.3628942370732</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33509,16 +33509,16 @@
         <v>719.2724161653283</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>738.3094167593528</v>
       </c>
       <c r="O33" t="n">
-        <v>484.6809944993804</v>
+        <v>508.1951705539557</v>
       </c>
       <c r="P33" t="n">
-        <v>542.0751679938735</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>362.3628942370732</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,28 +33734,28 @@
         <v>97.73738042059595</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>268.1988422471411</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>458.3945394834498</v>
       </c>
       <c r="L36" t="n">
         <v>616.368027735236</v>
       </c>
       <c r="M36" t="n">
-        <v>383.4911461959524</v>
+        <v>719.2724161653283</v>
       </c>
       <c r="N36" t="n">
-        <v>738.3094167593528</v>
+        <v>695.8075822893207</v>
       </c>
       <c r="O36" t="n">
-        <v>675.4088758823017</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>542.0751679938735</v>
       </c>
       <c r="Q36" t="n">
-        <v>362.3628942370732</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.305591562696623</v>
+        <v>5.305591562696624</v>
       </c>
       <c r="H38" t="n">
-        <v>54.3358895914668</v>
+        <v>54.33588959146682</v>
       </c>
       <c r="I38" t="n">
         <v>204.5438187208618</v>
       </c>
       <c r="J38" t="n">
-        <v>450.3054518944229</v>
+        <v>450.305451894423</v>
       </c>
       <c r="K38" t="n">
-        <v>674.8911427433711</v>
+        <v>674.8911427433712</v>
       </c>
       <c r="L38" t="n">
-        <v>837.2621405302481</v>
+        <v>837.2621405302482</v>
       </c>
       <c r="M38" t="n">
-        <v>931.615454483354</v>
+        <v>931.6154544833543</v>
       </c>
       <c r="N38" t="n">
-        <v>946.6899665108659</v>
+        <v>946.6899665108662</v>
       </c>
       <c r="O38" t="n">
-        <v>893.9324904093013</v>
+        <v>893.9324904093015</v>
       </c>
       <c r="P38" t="n">
-        <v>762.9506987052283</v>
+        <v>762.9506987052284</v>
       </c>
       <c r="Q38" t="n">
-        <v>572.9442008661554</v>
+        <v>572.9442008661555</v>
       </c>
       <c r="R38" t="n">
-        <v>333.277366000242</v>
+        <v>333.2773660002421</v>
       </c>
       <c r="S38" t="n">
         <v>120.9011677349494</v>
@@ -33925,7 +33925,7 @@
         <v>23.22522706570448</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4244473250157297</v>
+        <v>0.4244473250157298</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,43 +33968,43 @@
         <v>27.41626900460539</v>
       </c>
       <c r="I39" t="n">
-        <v>97.73738042059595</v>
+        <v>97.73738042059597</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>268.1988422471412</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>458.3945394834499</v>
       </c>
       <c r="L39" t="n">
-        <v>280.5867577658602</v>
+        <v>616.3680277352361</v>
       </c>
       <c r="M39" t="n">
-        <v>719.2724161653283</v>
+        <v>719.2724161653284</v>
       </c>
       <c r="N39" t="n">
-        <v>738.3094167593528</v>
+        <v>738.3094167593529</v>
       </c>
       <c r="O39" t="n">
-        <v>675.4088758823017</v>
+        <v>508.1951705539548</v>
       </c>
       <c r="P39" t="n">
-        <v>542.0751679938735</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>362.3628942370732</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>52.72838294028325</v>
+        <v>52.72838294028326</v>
       </c>
       <c r="T39" t="n">
         <v>11.44212135115002</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1867593256444509</v>
+        <v>0.186759325644451</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,7 +34047,7 @@
         <v>21.15952543268737</v>
       </c>
       <c r="I40" t="n">
-        <v>71.57025575800591</v>
+        <v>71.57025575800593</v>
       </c>
       <c r="J40" t="n">
         <v>168.2593346523615</v>
@@ -34056,7 +34056,7 @@
         <v>276.5017740590433</v>
       </c>
       <c r="L40" t="n">
-        <v>353.827074566635</v>
+        <v>353.8270745666351</v>
       </c>
       <c r="M40" t="n">
         <v>373.0610399139346</v>
@@ -34068,7 +34068,7 @@
         <v>336.3888562652588</v>
       </c>
       <c r="P40" t="n">
-        <v>287.8387795055955</v>
+        <v>287.8387795055956</v>
       </c>
       <c r="Q40" t="n">
         <v>199.2846510843387</v>
@@ -34077,7 +34077,7 @@
         <v>107.0092155317706</v>
       </c>
       <c r="S40" t="n">
-        <v>41.47526610885648</v>
+        <v>41.47526610885649</v>
       </c>
       <c r="T40" t="n">
         <v>10.16868809137327</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.305591562696623</v>
+        <v>5.305591562696624</v>
       </c>
       <c r="H41" t="n">
-        <v>54.3358895914668</v>
+        <v>54.33588959146682</v>
       </c>
       <c r="I41" t="n">
         <v>204.5438187208618</v>
       </c>
       <c r="J41" t="n">
-        <v>450.3054518944229</v>
+        <v>450.305451894423</v>
       </c>
       <c r="K41" t="n">
-        <v>674.8911427433702</v>
+        <v>674.8911427433712</v>
       </c>
       <c r="L41" t="n">
-        <v>837.2621405302481</v>
+        <v>837.2621405302482</v>
       </c>
       <c r="M41" t="n">
-        <v>931.615454483354</v>
+        <v>931.6154544833543</v>
       </c>
       <c r="N41" t="n">
-        <v>946.6899665108659</v>
+        <v>946.6899665108662</v>
       </c>
       <c r="O41" t="n">
-        <v>893.9324904093013</v>
+        <v>893.9324904093015</v>
       </c>
       <c r="P41" t="n">
-        <v>762.9506987052283</v>
+        <v>762.9506987052284</v>
       </c>
       <c r="Q41" t="n">
-        <v>572.9442008661554</v>
+        <v>572.9442008661555</v>
       </c>
       <c r="R41" t="n">
-        <v>333.277366000242</v>
+        <v>333.2773660002421</v>
       </c>
       <c r="S41" t="n">
         <v>120.9011677349494</v>
@@ -34162,7 +34162,7 @@
         <v>23.22522706570448</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4244473250157297</v>
+        <v>0.4244473250157298</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34205,43 @@
         <v>27.41626900460539</v>
       </c>
       <c r="I42" t="n">
-        <v>97.73738042059595</v>
+        <v>97.73738042059597</v>
       </c>
       <c r="J42" t="n">
-        <v>268.1988422471411</v>
+        <v>268.1988422471412</v>
       </c>
       <c r="K42" t="n">
-        <v>458.3945394834498</v>
+        <v>458.3945394834499</v>
       </c>
       <c r="L42" t="n">
-        <v>616.368027735236</v>
+        <v>616.3680277352361</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>719.2724161653284</v>
       </c>
       <c r="N42" t="n">
-        <v>738.3094167593528</v>
+        <v>738.3094167593529</v>
       </c>
       <c r="O42" t="n">
-        <v>675.4088758823017</v>
+        <v>508.1951705539552</v>
       </c>
       <c r="P42" t="n">
-        <v>542.0751679938735</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>141.8056904214419</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>52.72838294028325</v>
+        <v>52.72838294028326</v>
       </c>
       <c r="T42" t="n">
         <v>11.44212135115002</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1867593256444509</v>
+        <v>0.186759325644451</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,7 +34284,7 @@
         <v>21.15952543268737</v>
       </c>
       <c r="I43" t="n">
-        <v>71.57025575800591</v>
+        <v>71.57025575800593</v>
       </c>
       <c r="J43" t="n">
         <v>168.2593346523615</v>
@@ -34293,7 +34293,7 @@
         <v>276.5017740590433</v>
       </c>
       <c r="L43" t="n">
-        <v>353.827074566635</v>
+        <v>353.8270745666351</v>
       </c>
       <c r="M43" t="n">
         <v>373.0610399139346</v>
@@ -34305,7 +34305,7 @@
         <v>336.3888562652588</v>
       </c>
       <c r="P43" t="n">
-        <v>287.8387795055955</v>
+        <v>287.8387795055956</v>
       </c>
       <c r="Q43" t="n">
         <v>199.2846510843387</v>
@@ -34314,7 +34314,7 @@
         <v>107.0092155317706</v>
       </c>
       <c r="S43" t="n">
-        <v>41.47526610885648</v>
+        <v>41.47526610885649</v>
       </c>
       <c r="T43" t="n">
         <v>10.16868809137327</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.305591562696623</v>
+        <v>5.305591562696624</v>
       </c>
       <c r="H44" t="n">
-        <v>54.3358895914668</v>
+        <v>54.33588959146682</v>
       </c>
       <c r="I44" t="n">
         <v>204.5438187208618</v>
       </c>
       <c r="J44" t="n">
-        <v>450.3054518944229</v>
+        <v>450.305451894423</v>
       </c>
       <c r="K44" t="n">
-        <v>674.8911427433711</v>
+        <v>674.8911427433712</v>
       </c>
       <c r="L44" t="n">
-        <v>837.2621405302481</v>
+        <v>837.2621405302482</v>
       </c>
       <c r="M44" t="n">
-        <v>931.615454483354</v>
+        <v>931.6154544833543</v>
       </c>
       <c r="N44" t="n">
-        <v>946.6899665108659</v>
+        <v>946.6899665108662</v>
       </c>
       <c r="O44" t="n">
-        <v>893.9324904093013</v>
+        <v>893.9324904093015</v>
       </c>
       <c r="P44" t="n">
-        <v>762.9506987052283</v>
+        <v>762.9506987052268</v>
       </c>
       <c r="Q44" t="n">
-        <v>572.9442008661554</v>
+        <v>572.9442008661555</v>
       </c>
       <c r="R44" t="n">
-        <v>333.277366000242</v>
+        <v>333.2773660002421</v>
       </c>
       <c r="S44" t="n">
         <v>120.9011677349494</v>
@@ -34399,7 +34399,7 @@
         <v>23.22522706570448</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4244473250157297</v>
+        <v>0.4244473250157298</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,43 +34442,43 @@
         <v>27.41626900460539</v>
       </c>
       <c r="I45" t="n">
-        <v>97.73738042059595</v>
+        <v>97.73738042059597</v>
       </c>
       <c r="J45" t="n">
-        <v>268.1988422471411</v>
+        <v>268.1988422471412</v>
       </c>
       <c r="K45" t="n">
-        <v>458.3945394834498</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>616.368027735236</v>
+        <v>616.3680277352361</v>
       </c>
       <c r="M45" t="n">
-        <v>423.8179645866854</v>
+        <v>719.2724161653284</v>
       </c>
       <c r="N45" t="n">
-        <v>738.3094167593528</v>
+        <v>738.3094167593529</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>675.4088758823018</v>
       </c>
       <c r="P45" t="n">
-        <v>542.0751679938735</v>
+        <v>287.3138025950743</v>
       </c>
       <c r="Q45" t="n">
-        <v>362.3628942370732</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>176.2510009215231</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>52.72838294028325</v>
+        <v>52.72838294028326</v>
       </c>
       <c r="T45" t="n">
         <v>11.44212135115002</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1867593256444509</v>
+        <v>0.186759325644451</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,7 +34521,7 @@
         <v>21.15952543268737</v>
       </c>
       <c r="I46" t="n">
-        <v>71.57025575800591</v>
+        <v>71.57025575800593</v>
       </c>
       <c r="J46" t="n">
         <v>168.2593346523615</v>
@@ -34530,7 +34530,7 @@
         <v>276.5017740590433</v>
       </c>
       <c r="L46" t="n">
-        <v>353.827074566635</v>
+        <v>353.8270745666351</v>
       </c>
       <c r="M46" t="n">
         <v>373.0610399139346</v>
@@ -34542,7 +34542,7 @@
         <v>336.3888562652588</v>
       </c>
       <c r="P46" t="n">
-        <v>287.8387795055955</v>
+        <v>287.8387795055956</v>
       </c>
       <c r="Q46" t="n">
         <v>199.2846510843387</v>
@@ -34551,7 +34551,7 @@
         <v>107.0092155317706</v>
       </c>
       <c r="S46" t="n">
-        <v>41.47526610885648</v>
+        <v>41.47526610885649</v>
       </c>
       <c r="T46" t="n">
         <v>10.16868809137327</v>
@@ -34699,16 +34699,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>48.44302776295223</v>
+      </c>
+      <c r="M2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>48.44302776295223</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>50.48273419507654</v>
@@ -34784,13 +34784,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.51290893396359</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>44.51290893396359</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>50.48273419507654</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>51.62272937534495</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>51.62272937534495</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O5" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="P5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>53.79631798062264</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
+        <v>45.25240582282282</v>
+      </c>
+      <c r="Q6" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="N6" t="n">
-        <v>45.25240582282283</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,13 +35176,13 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>201.2284652382808</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>190.2895215332986</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="O8" t="n">
         <v>171.8879043605652</v>
@@ -35261,16 +35261,16 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>255.0853779233022</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>182.6425751625073</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>150.2436824009746</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>269.2595473677366</v>
       </c>
       <c r="K11" t="n">
-        <v>454.8012916983905</v>
+        <v>454.8012916983906</v>
       </c>
       <c r="L11" t="n">
-        <v>601.4957255602606</v>
+        <v>601.4957255602608</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2692212560812</v>
+        <v>701.2692212560813</v>
       </c>
       <c r="N11" t="n">
-        <v>717.2769029142748</v>
+        <v>717.2769029142751</v>
       </c>
       <c r="O11" t="n">
-        <v>663.8342789876144</v>
+        <v>663.8342789876145</v>
       </c>
       <c r="P11" t="n">
         <v>531.7177029499587</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.6385109917057</v>
+        <v>350.6385109917068</v>
       </c>
       <c r="R11" t="n">
-        <v>117.6918281861098</v>
+        <v>117.6918281861099</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>355.8390039028297</v>
+        <v>355.8390039028292</v>
       </c>
       <c r="O12" t="n">
-        <v>532.8126314378571</v>
+        <v>532.8126314378572</v>
       </c>
       <c r="P12" t="n">
-        <v>408.1007605795431</v>
+        <v>408.1007605795432</v>
       </c>
       <c r="Q12" t="n">
-        <v>222.3811201510516</v>
+        <v>222.3811201510517</v>
       </c>
       <c r="R12" t="n">
-        <v>30.57149695755916</v>
+        <v>30.57149695755919</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.90015453568867</v>
+        <v>74.9001545356887</v>
       </c>
       <c r="K13" t="n">
         <v>254.2322822331604</v>
@@ -35574,10 +35574,10 @@
         <v>381.4170998269511</v>
       </c>
       <c r="M13" t="n">
-        <v>412.644916875775</v>
+        <v>412.6449168757752</v>
       </c>
       <c r="N13" t="n">
-        <v>408.3226545964335</v>
+        <v>408.3226545964336</v>
       </c>
       <c r="O13" t="n">
         <v>360.9739841792984</v>
@@ -35586,7 +35586,7 @@
         <v>285.117338770489</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.1226078326442</v>
+        <v>113.1226078326443</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.6385109917059</v>
       </c>
       <c r="R14" t="n">
-        <v>117.6918281861094</v>
+        <v>117.6918281861099</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>477.8136479553618</v>
       </c>
       <c r="M15" t="n">
-        <v>312.2554276222264</v>
+        <v>577.1383822433099</v>
       </c>
       <c r="N15" t="n">
         <v>606.9677046760195</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>365.5989261095112</v>
       </c>
       <c r="P15" t="n">
-        <v>408.1007605795432</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>222.3811201510517</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>86.09979878789981</v>
+        <v>86.09979878789989</v>
       </c>
       <c r="K16" t="n">
-        <v>265.4319264853715</v>
+        <v>265.4319264853716</v>
       </c>
       <c r="L16" t="n">
         <v>392.6167440791623</v>
@@ -35814,13 +35814,13 @@
         <v>423.8445611279863</v>
       </c>
       <c r="N16" t="n">
-        <v>419.5222988486447</v>
+        <v>419.5222988486448</v>
       </c>
       <c r="O16" t="n">
-        <v>372.1736284315095</v>
+        <v>372.1736284315096</v>
       </c>
       <c r="P16" t="n">
-        <v>296.3169830227001</v>
+        <v>296.3169830227002</v>
       </c>
       <c r="Q16" t="n">
         <v>124.3222520848554</v>
@@ -35890,7 +35890,7 @@
         <v>601.4957255602608</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2692212560813</v>
+        <v>701.2692212560822</v>
       </c>
       <c r="N17" t="n">
         <v>717.2769029142751</v>
@@ -35905,7 +35905,7 @@
         <v>350.6385109917059</v>
       </c>
       <c r="R17" t="n">
-        <v>117.6918281861094</v>
+        <v>117.6918281861099</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>477.8136479553618</v>
       </c>
       <c r="M18" t="n">
-        <v>577.1383822433099</v>
+        <v>386.4105008603885</v>
       </c>
       <c r="N18" t="n">
-        <v>342.084750054936</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>532.8126314378572</v>
       </c>
       <c r="P18" t="n">
         <v>408.1007605795432</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>91.91723579180415</v>
+        <v>91.91723579180402</v>
       </c>
       <c r="K19" t="n">
-        <v>271.2493634892759</v>
+        <v>271.2493634892758</v>
       </c>
       <c r="L19" t="n">
-        <v>398.4341810830666</v>
+        <v>398.4341810830665</v>
       </c>
       <c r="M19" t="n">
-        <v>429.6619981318906</v>
+        <v>429.6619981318905</v>
       </c>
       <c r="N19" t="n">
-        <v>425.339735852549</v>
+        <v>425.3397358525489</v>
       </c>
       <c r="O19" t="n">
-        <v>377.9910654354139</v>
+        <v>377.9910654354138</v>
       </c>
       <c r="P19" t="n">
-        <v>302.1344200266045</v>
+        <v>302.1344200266043</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.1396890887597</v>
+        <v>130.1396890887596</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>601.4957255602608</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2692212560804</v>
+        <v>701.2692212560822</v>
       </c>
       <c r="N20" t="n">
         <v>717.2769029142751</v>
@@ -36206,10 +36206,10 @@
         <v>477.8136479553618</v>
       </c>
       <c r="M21" t="n">
-        <v>577.1383822433099</v>
+        <v>281.6839306646671</v>
       </c>
       <c r="N21" t="n">
-        <v>342.084750054936</v>
+        <v>606.9677046760195</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>222.3811201510517</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>30.57149695755919</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>91.91723579180419</v>
+        <v>91.91723579180402</v>
       </c>
       <c r="K22" t="n">
-        <v>271.2493634892759</v>
+        <v>271.2493634892758</v>
       </c>
       <c r="L22" t="n">
-        <v>398.4341810830666</v>
+        <v>398.4341810830665</v>
       </c>
       <c r="M22" t="n">
-        <v>429.6619981318906</v>
+        <v>429.6619981318905</v>
       </c>
       <c r="N22" t="n">
-        <v>425.3397358525491</v>
+        <v>425.3397358525489</v>
       </c>
       <c r="O22" t="n">
-        <v>377.9910654354139</v>
+        <v>377.9910654354138</v>
       </c>
       <c r="P22" t="n">
-        <v>302.1344200266045</v>
+        <v>302.1344200266043</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.1396890887598</v>
+        <v>130.1396890887596</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>477.8136479553618</v>
       </c>
       <c r="M24" t="n">
-        <v>312.2554276222264</v>
+        <v>577.1383822433099</v>
       </c>
       <c r="N24" t="n">
-        <v>606.9677046760195</v>
+        <v>31.65323876813003</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>532.8126314378572</v>
       </c>
       <c r="P24" t="n">
         <v>408.1007605795432</v>
       </c>
       <c r="Q24" t="n">
-        <v>222.3811201510517</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>91.91723579180419</v>
+        <v>91.91723579180402</v>
       </c>
       <c r="K25" t="n">
-        <v>271.2493634892759</v>
+        <v>271.2493634892758</v>
       </c>
       <c r="L25" t="n">
-        <v>398.4341810830666</v>
+        <v>398.4341810830665</v>
       </c>
       <c r="M25" t="n">
-        <v>429.6619981318906</v>
+        <v>429.6619981318905</v>
       </c>
       <c r="N25" t="n">
-        <v>425.3397358525491</v>
+        <v>425.3397358525489</v>
       </c>
       <c r="O25" t="n">
-        <v>377.9910654354139</v>
+        <v>377.9910654354138</v>
       </c>
       <c r="P25" t="n">
-        <v>302.1344200266045</v>
+        <v>302.1344200266043</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.1396890887598</v>
+        <v>130.1396890887596</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>141.3612155804744</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>320.5531005090908</v>
@@ -36680,13 +36680,13 @@
         <v>477.8136479553618</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>577.1383822433099</v>
       </c>
       <c r="N27" t="n">
-        <v>386.4105008603885</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>532.8126314378572</v>
+        <v>452.8744686778509</v>
       </c>
       <c r="P27" t="n">
         <v>408.1007605795432</v>
@@ -36695,7 +36695,7 @@
         <v>222.3811201510517</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>30.57149695755919</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>477.8136479553618</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>577.1383822433099</v>
       </c>
       <c r="N30" t="n">
         <v>606.9677046760195</v>
       </c>
       <c r="O30" t="n">
-        <v>312.2554276222264</v>
+        <v>365.5989261095112</v>
       </c>
       <c r="P30" t="n">
-        <v>408.1007605795432</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>222.3811201510517</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>91.91723579180415</v>
+        <v>91.91723579180407</v>
       </c>
       <c r="K31" t="n">
-        <v>271.2493634892759</v>
+        <v>271.2493634892758</v>
       </c>
       <c r="L31" t="n">
-        <v>398.4341810830666</v>
+        <v>398.4341810830665</v>
       </c>
       <c r="M31" t="n">
-        <v>429.6619981318906</v>
+        <v>429.6619981318905</v>
       </c>
       <c r="N31" t="n">
         <v>425.339735852549</v>
       </c>
       <c r="O31" t="n">
-        <v>377.9910654354139</v>
+        <v>377.9910654354138</v>
       </c>
       <c r="P31" t="n">
-        <v>302.1344200266045</v>
+        <v>302.1344200266044</v>
       </c>
       <c r="Q31" t="n">
         <v>130.1396890887597</v>
@@ -37157,16 +37157,16 @@
         <v>577.1383822433099</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>606.9677046760195</v>
       </c>
       <c r="O33" t="n">
-        <v>342.084750054936</v>
+        <v>365.5989261095112</v>
       </c>
       <c r="P33" t="n">
-        <v>408.1007605795432</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>222.3811201510517</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>141.3612155804744</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>320.5531005090908</v>
       </c>
       <c r="L36" t="n">
         <v>477.8136479553618</v>
       </c>
       <c r="M36" t="n">
-        <v>241.3571122739341</v>
+        <v>577.1383822433099</v>
       </c>
       <c r="N36" t="n">
-        <v>606.9677046760195</v>
+        <v>564.4658702059875</v>
       </c>
       <c r="O36" t="n">
-        <v>532.8126314378572</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>408.1007605795432</v>
       </c>
       <c r="Q36" t="n">
-        <v>222.3811201510517</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>269.2595473677366</v>
+        <v>269.2595473677367</v>
       </c>
       <c r="K38" t="n">
-        <v>454.8012916983906</v>
+        <v>454.8012916983907</v>
       </c>
       <c r="L38" t="n">
-        <v>601.4957255602608</v>
+        <v>601.495725560261</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2692212560813</v>
+        <v>701.2692212560816</v>
       </c>
       <c r="N38" t="n">
-        <v>717.2769029142751</v>
+        <v>717.2769029142753</v>
       </c>
       <c r="O38" t="n">
-        <v>663.8342789876145</v>
+        <v>663.8342789876148</v>
       </c>
       <c r="P38" t="n">
-        <v>531.7177029499587</v>
+        <v>531.7177029499589</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.6385109917059</v>
+        <v>350.638510991706</v>
       </c>
       <c r="R38" t="n">
         <v>117.6918281861099</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>141.3612155804745</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>320.5531005090909</v>
       </c>
       <c r="L39" t="n">
-        <v>142.032377985986</v>
+        <v>477.8136479553619</v>
       </c>
       <c r="M39" t="n">
-        <v>577.1383822433099</v>
+        <v>577.1383822433102</v>
       </c>
       <c r="N39" t="n">
-        <v>606.9677046760195</v>
+        <v>606.9677046760196</v>
       </c>
       <c r="O39" t="n">
-        <v>532.8126314378572</v>
+        <v>365.5989261095103</v>
       </c>
       <c r="P39" t="n">
-        <v>408.1007605795432</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>222.3811201510517</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.1168800440152</v>
+        <v>103.1168800440153</v>
       </c>
       <c r="K40" t="n">
         <v>282.449007741487</v>
       </c>
       <c r="L40" t="n">
-        <v>409.6338253352777</v>
+        <v>409.6338253352778</v>
       </c>
       <c r="M40" t="n">
-        <v>440.8616423841017</v>
+        <v>440.8616423841018</v>
       </c>
       <c r="N40" t="n">
-        <v>436.5393801047601</v>
+        <v>436.5393801047602</v>
       </c>
       <c r="O40" t="n">
-        <v>389.190709687625</v>
+        <v>389.1907096876251</v>
       </c>
       <c r="P40" t="n">
-        <v>313.3340642788156</v>
+        <v>313.3340642788157</v>
       </c>
       <c r="Q40" t="n">
-        <v>141.3393333409708</v>
+        <v>141.3393333409709</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>269.2595473677366</v>
+        <v>269.2595473677367</v>
       </c>
       <c r="K41" t="n">
-        <v>454.8012916983897</v>
+        <v>454.8012916983907</v>
       </c>
       <c r="L41" t="n">
-        <v>601.4957255602608</v>
+        <v>601.495725560261</v>
       </c>
       <c r="M41" t="n">
-        <v>701.2692212560813</v>
+        <v>701.2692212560816</v>
       </c>
       <c r="N41" t="n">
-        <v>717.2769029142751</v>
+        <v>717.2769029142753</v>
       </c>
       <c r="O41" t="n">
-        <v>663.8342789876145</v>
+        <v>663.8342789876148</v>
       </c>
       <c r="P41" t="n">
-        <v>531.7177029499587</v>
+        <v>531.7177029499589</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.6385109917059</v>
+        <v>350.638510991706</v>
       </c>
       <c r="R41" t="n">
         <v>117.6918281861099</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>141.3612155804744</v>
+        <v>141.3612155804745</v>
       </c>
       <c r="K42" t="n">
-        <v>320.5531005090908</v>
+        <v>320.5531005090909</v>
       </c>
       <c r="L42" t="n">
-        <v>477.8136479553618</v>
+        <v>477.8136479553619</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>577.1383822433102</v>
       </c>
       <c r="N42" t="n">
-        <v>606.9677046760195</v>
+        <v>606.9677046760196</v>
       </c>
       <c r="O42" t="n">
-        <v>532.8126314378572</v>
+        <v>365.5989261095108</v>
       </c>
       <c r="P42" t="n">
-        <v>408.1007605795432</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.82391633542043</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,13 +37941,13 @@
         <v>282.449007741487</v>
       </c>
       <c r="L43" t="n">
-        <v>409.6338253352777</v>
+        <v>409.6338253352778</v>
       </c>
       <c r="M43" t="n">
         <v>440.8616423841017</v>
       </c>
       <c r="N43" t="n">
-        <v>436.5393801047602</v>
+        <v>436.5393801047601</v>
       </c>
       <c r="O43" t="n">
         <v>389.190709687625</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>269.2595473677366</v>
+        <v>269.2595473677367</v>
       </c>
       <c r="K44" t="n">
-        <v>454.8012916983906</v>
+        <v>454.8012916983907</v>
       </c>
       <c r="L44" t="n">
-        <v>601.4957255602608</v>
+        <v>601.495725560261</v>
       </c>
       <c r="M44" t="n">
-        <v>701.2692212560813</v>
+        <v>701.2692212560816</v>
       </c>
       <c r="N44" t="n">
-        <v>717.2769029142751</v>
+        <v>717.2769029142753</v>
       </c>
       <c r="O44" t="n">
-        <v>663.8342789876145</v>
+        <v>663.8342789876148</v>
       </c>
       <c r="P44" t="n">
-        <v>531.7177029499587</v>
+        <v>531.7177029499574</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.6385109917059</v>
+        <v>350.638510991706</v>
       </c>
       <c r="R44" t="n">
         <v>117.6918281861099</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>141.3612155804744</v>
+        <v>141.3612155804745</v>
       </c>
       <c r="K45" t="n">
-        <v>320.5531005090908</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>477.8136479553618</v>
+        <v>477.8136479553619</v>
       </c>
       <c r="M45" t="n">
-        <v>281.6839306646671</v>
+        <v>577.1383822433102</v>
       </c>
       <c r="N45" t="n">
-        <v>606.9677046760195</v>
+        <v>606.9677046760196</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>532.8126314378574</v>
       </c>
       <c r="P45" t="n">
-        <v>408.1007605795432</v>
+        <v>153.339395180744</v>
       </c>
       <c r="Q45" t="n">
-        <v>222.3811201510517</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.57149695755919</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>282.449007741487</v>
       </c>
       <c r="L46" t="n">
-        <v>409.6338253352777</v>
+        <v>409.6338253352778</v>
       </c>
       <c r="M46" t="n">
         <v>440.8616423841017</v>
@@ -38193,7 +38193,7 @@
         <v>313.3340642788156</v>
       </c>
       <c r="Q46" t="n">
-        <v>141.3393333409708</v>
+        <v>141.3393333409709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
